--- a/data/hotels_by_city/Houston/Houston_shard_244.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_244.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56764-d229525-Reviews-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Fairfield-Inn-Suites-Houston-The-Woodlands.h563881.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1552 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r577233744-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>56764</t>
+  </si>
+  <si>
+    <t>229525</t>
+  </si>
+  <si>
+    <t>577233744</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Girls Trip</t>
+  </si>
+  <si>
+    <t>We had a Great Experience at this Location. We were a group of 5 Women, and felt comfortable and protected. All Around Great Service from staff and Security. Our Vehicles we're checked on periodically by security. All thumbs up !!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>margarita g, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>We had a Great Experience at this Location. We were a group of 5 Women, and felt comfortable and protected. All Around Great Service from staff and Security. Our Vehicles we're checked on periodically by security. All thumbs up !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r576232060-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>576232060</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>Very Clean, Staff is Awesome, Eating and Shopping Nearby</t>
+  </si>
+  <si>
+    <t>Cannot day enough about this hotel. It was very clean, the staff is awesome, the hallways were air conditioned and clean, the rooms smelled fresh, minutes from restaurants and shopping. There were so many restaurants to choose from but the Hotel recommended a new place that was wonderful! It is right on off I-45 and Walmart is in walking distance. Can’t say enough about it.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>margarita g, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Cannot day enough about this hotel. It was very clean, the staff is awesome, the hallways were air conditioned and clean, the rooms smelled fresh, minutes from restaurants and shopping. There were so many restaurants to choose from but the Hotel recommended a new place that was wonderful! It is right on off I-45 and Walmart is in walking distance. Can’t say enough about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r572654984-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>572654984</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Awesome staff</t>
+  </si>
+  <si>
+    <t>Front desk agent Penny went above and beyond the call of duty for me!!!  She made my stay exceptional!!!  All staff, including Kara too was helpful and friendly.  Love this hotel.  Great location.  breakfast was great!  I will stay here in the future.   Very convenient location.  Restaurants and shops close by.  Easy access to I-45.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Front desk agent Penny went above and beyond the call of duty for me!!!  She made my stay exceptional!!!  All staff, including Kara too was helpful and friendly.  Love this hotel.  Great location.  breakfast was great!  I will stay here in the future.   Very convenient location.  Restaurants and shops close by.  Easy access to I-45.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r567236444-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>567236444</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Friendly and Basic</t>
+  </si>
+  <si>
+    <t>I stayed here for one night for work. Check in was easy and the person working the desk was very friendly. The hotel needs updating but the room was fine for what I needed. It wasn't luxurious, but I wasn't expecting it to be. Halls and elevator was old and needs updating. Breakfast is complimentary, which is nice! I had to leave for work before breakfast was served, but they offered me some coffee from the breakfast bar, which I appreciated. Would recommend for a basic stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>margarita g, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for one night for work. Check in was easy and the person working the desk was very friendly. The hotel needs updating but the room was fine for what I needed. It wasn't luxurious, but I wasn't expecting it to be. Halls and elevator was old and needs updating. Breakfast is complimentary, which is nice! I had to leave for work before breakfast was served, but they offered me some coffee from the breakfast bar, which I appreciated. Would recommend for a basic stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r565922630-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>565922630</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Needs a serious update and better staff</t>
+  </si>
+  <si>
+    <t>In the past we enjoyed our stay here so we expected the same or better this trip. So disappointed! We only had 1 friendly staff member (African American lady at the front desk). Everyone else was rude, abrupt and dismissive. The breakfast was horrible and wasn't enough. The staff member started packing things up early so customers who came down later only got yogurt, juice and coffee...If that. She didn't clean the service area through the breakfast period and didn't wipe the tables AT ALL.  My room had several issues which I reported to management. One was fixed. That's it. No comp or anything. The housekeeping staff wouldn't leave enough towel sets for 3 people, sending me to the front desk every night.  Not sure if I'll ever visit this location again quite disappointed as was my group. MoreShow less</t>
+  </si>
+  <si>
+    <t>margarita g, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>In the past we enjoyed our stay here so we expected the same or better this trip. So disappointed! We only had 1 friendly staff member (African American lady at the front desk). Everyone else was rude, abrupt and dismissive. The breakfast was horrible and wasn't enough. The staff member started packing things up early so customers who came down later only got yogurt, juice and coffee...If that. She didn't clean the service area through the breakfast period and didn't wipe the tables AT ALL.  My room had several issues which I reported to management. One was fixed. That's it. No comp or anything. The housekeeping staff wouldn't leave enough towel sets for 3 people, sending me to the front desk every night.  Not sure if I'll ever visit this location again quite disappointed as was my group. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r549564406-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>549564406</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Not Recommended</t>
+  </si>
+  <si>
+    <t>I spend 133 nights in Marriott Hotels this years and this on and another one in Orlando are on the worst two list.  Obviously they are understaffed and the access to the hotel is not friendly but the part that stroke me the most is the internet censorship they only allow you to access certain website and they block others.  If I'm paying for a room I don't want the hotel to tell me what can or cannot see in the internet.  Outrages me when companies step into peoples business.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Travis S, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>I spend 133 nights in Marriott Hotels this years and this on and another one in Orlando are on the worst two list.  Obviously they are understaffed and the access to the hotel is not friendly but the part that stroke me the most is the internet censorship they only allow you to access certain website and they block others.  If I'm paying for a room I don't want the hotel to tell me what can or cannot see in the internet.  Outrages me when companies step into peoples business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r528006616-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>528006616</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Needs a redo</t>
+  </si>
+  <si>
+    <t>The best things about this place are the price and the bed. Beyond that, not so good. The place has an old smell about it. The window had lost it seal and was fogged up all the time. The outside noises between the interstate and the trains were constantly waking us up. The location is not very convenient. Overall, I think this place could move up with a redo of paint, carpet and better windows. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>The best things about this place are the price and the bed. Beyond that, not so good. The place has an old smell about it. The window had lost it seal and was fogged up all the time. The outside noises between the interstate and the trains were constantly waking us up. The location is not very convenient. Overall, I think this place could move up with a redo of paint, carpet and better windows. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r518563176-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>518563176</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for a quick weekend</t>
+  </si>
+  <si>
+    <t>Stayed at the Fairfield while there for a family celebration.  Very clean and quiet.  Front desk was extremely friendly.  For those that want it, there is a refrigerated area with soft drinks and beer at reception area.  Hotel was great value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at the Fairfield while there for a family celebration.  Very clean and quiet.  Front desk was extremely friendly.  For those that want it, there is a refrigerated area with soft drinks and beer at reception area.  Hotel was great value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r515363586-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>515363586</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Came to see a concert at the Woodlands Pavillion.  </t>
+  </si>
+  <si>
+    <t>We are still here!!! Will see how breakfast is in the morning.When we arrived we saw the pool literally filled with children.  Water all over the floors which made me think this is dangerous!! Liability issue was my first thought!! Staff was great !!!Rooms were surprisingly quiet even if the kids were running up and down halls!! and very clean!!! Had a great stay!!! Everything is close by!!! Will stay here again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2017</t>
+  </si>
+  <si>
+    <t>We are still here!!! Will see how breakfast is in the morning.When we arrived we saw the pool literally filled with children.  Water all over the floors which made me think this is dangerous!! Liability issue was my first thought!! Staff was great !!!Rooms were surprisingly quiet even if the kids were running up and down halls!! and very clean!!! Had a great stay!!! Everything is close by!!! Will stay here again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r498058069-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>498058069</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Great Location, helpful Front Desk</t>
+  </si>
+  <si>
+    <t>It was a weekend getaway stay. Cindy at the front desk was very nice and helpful. She was able to tell me where to turn after getting off the elevator. That might sound like a small thing, but these kind of things make a stay special. The room was spacious enough with effective A/C. Breakfast was satisfying. In general this was a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>It was a weekend getaway stay. Cindy at the front desk was very nice and helpful. She was able to tell me where to turn after getting off the elevator. That might sound like a small thing, but these kind of things make a stay special. The room was spacious enough with effective A/C. Breakfast was satisfying. In general this was a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r495013463-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>495013463</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>What a waste of free Marriott points I have earned!!!</t>
+  </si>
+  <si>
+    <t>First of all: the hotel is very hard to find. I have arrived there during day time (mid afternoon), and I drove  back and forth, God only knows how many times. Tried to get to the hotel from different directions. Best way to get to it, pretend you are going shopping at Wal Mart or Lowes and it is across.But even that, is hard to find it because the drive way is filled with trees. Therefore making it hard to see it from a distance. You have to be literally smack on top of it.  Once u get there, depending from where u are coming from, u need to make either a last minute sharp right or left turn in order to finally arrive in their driveway. Truly a pain in the rear and dangerous if u are approaching from I-45 . U do see it last minute when is too late to slow down and turn in their exit. I have never checked in in an hotel so aggravated and frustrated until this time. Good luck if you arrive there at night time. Furthermore, down the street, there is ANOTHER Marriott. But that one is a Springhill Marriott. But at first when u see it, u think is the Fairfield until u get closer and realize " oh crap, this is NOT the one". So u exit again, to go search for your original one. GOOD LUCK. By the...First of all: the hotel is very hard to find. I have arrived there during day time (mid afternoon), and I drove  back and forth, God only knows how many times. Tried to get to the hotel from different directions. Best way to get to it, pretend you are going shopping at Wal Mart or Lowes and it is across.But even that, is hard to find it because the drive way is filled with trees. Therefore making it hard to see it from a distance. You have to be literally smack on top of it.  Once u get there, depending from where u are coming from, u need to make either a last minute sharp right or left turn in order to finally arrive in their driveway. Truly a pain in the rear and dangerous if u are approaching from I-45 . U do see it last minute when is too late to slow down and turn in their exit. I have never checked in in an hotel so aggravated and frustrated until this time. Good luck if you arrive there at night time. Furthermore, down the street, there is ANOTHER Marriott. But that one is a Springhill Marriott. But at first when u see it, u think is the Fairfield until u get closer and realize " oh crap, this is NOT the one". So u exit again, to go search for your original one. GOOD LUCK. By the way, when I checked in the lady working the front desk said to  me " i know, everybody complains that is hard to find!". Say no more. However my suggestion is: if everybody is complaining then do something about it.I have literally used the place only to sleep. Leave in the morning and come back at night. HOWEVER, the first day I arrived , after getting up early in the morning and having had no food all that time until afternoon, I would have welcomed so much a nice room service . BE AWARE . THERE ARE NO RESTAURANTS IN THE HOTEL AND NO ROOM SERVICE. Being a seasoned traveller, I have to admit it has been my mistake not to read all the services offered. My mistake. Since im a Marriott devoted loyal customer, I have assumed just by the name "MARRIOTT", that it would indeed have room service. So please be aware: there is none. The bathroom was moldy in the corner. The fan in the bathroom , loud and annoying. Cant separate the fan from the lights. If u want the light on, enjoy the loud fan in the bathroom. SERVICE: Usually in any hotel you find at least two sides, or two door tags saying" do not disturb", and the other "please service my room". The tag was available only for "im getting some ZZZZss"....so when i asked the maid kindly to make my room, she did acknowledge me with a smile , but my bed was never made or new towels. By the way, to make sure she would get in the room, I did remove the tag in the door. I walked in that evening and found everything the way I left it. The following two mornings, no service still was received. Same as the first day. I only splurged in the nasty coffee in the room , just to have some sort of caffeine in me. Not even real creamers, but those nasty dried up packages of powdered milk. Honestly not sure how long they have been there in their storage area, because they were cracking on the inside and hard. Real tiny creamers would have been nice. They have two packages of regular coffee, and two decaf. For my third day , the day before i have called the desk to see if the cleaners could bring me one package of regular coffee. Didnt think I asked too much. Well, nobody ever got to my room and when I returned to the hotel later in the evening, the front desk didnt even pick up the phone . Granted maybe they were busy checking in other guests. By the way, there are two computers at the check in desk, but only ONE employee that I have seen at all times. Usually hiding in the back room. They would come out only if a guest was about to check in. Not sure if this is normal procedure. Maybe so, since it was NOT  a convention center Marriott with hundreds of rooms .One the upside: I have to admit it, it was quiet and conveniently located on the entrance or exit of the i-45.But I regret so much wasting my free nights in this Marriott when I could have saved them for a much upper scale Marriott which I always love. I will never go back to this place. Over my dead body.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>First of all: the hotel is very hard to find. I have arrived there during day time (mid afternoon), and I drove  back and forth, God only knows how many times. Tried to get to the hotel from different directions. Best way to get to it, pretend you are going shopping at Wal Mart or Lowes and it is across.But even that, is hard to find it because the drive way is filled with trees. Therefore making it hard to see it from a distance. You have to be literally smack on top of it.  Once u get there, depending from where u are coming from, u need to make either a last minute sharp right or left turn in order to finally arrive in their driveway. Truly a pain in the rear and dangerous if u are approaching from I-45 . U do see it last minute when is too late to slow down and turn in their exit. I have never checked in in an hotel so aggravated and frustrated until this time. Good luck if you arrive there at night time. Furthermore, down the street, there is ANOTHER Marriott. But that one is a Springhill Marriott. But at first when u see it, u think is the Fairfield until u get closer and realize " oh crap, this is NOT the one". So u exit again, to go search for your original one. GOOD LUCK. By the...First of all: the hotel is very hard to find. I have arrived there during day time (mid afternoon), and I drove  back and forth, God only knows how many times. Tried to get to the hotel from different directions. Best way to get to it, pretend you are going shopping at Wal Mart or Lowes and it is across.But even that, is hard to find it because the drive way is filled with trees. Therefore making it hard to see it from a distance. You have to be literally smack on top of it.  Once u get there, depending from where u are coming from, u need to make either a last minute sharp right or left turn in order to finally arrive in their driveway. Truly a pain in the rear and dangerous if u are approaching from I-45 . U do see it last minute when is too late to slow down and turn in their exit. I have never checked in in an hotel so aggravated and frustrated until this time. Good luck if you arrive there at night time. Furthermore, down the street, there is ANOTHER Marriott. But that one is a Springhill Marriott. But at first when u see it, u think is the Fairfield until u get closer and realize " oh crap, this is NOT the one". So u exit again, to go search for your original one. GOOD LUCK. By the way, when I checked in the lady working the front desk said to  me " i know, everybody complains that is hard to find!". Say no more. However my suggestion is: if everybody is complaining then do something about it.I have literally used the place only to sleep. Leave in the morning and come back at night. HOWEVER, the first day I arrived , after getting up early in the morning and having had no food all that time until afternoon, I would have welcomed so much a nice room service . BE AWARE . THERE ARE NO RESTAURANTS IN THE HOTEL AND NO ROOM SERVICE. Being a seasoned traveller, I have to admit it has been my mistake not to read all the services offered. My mistake. Since im a Marriott devoted loyal customer, I have assumed just by the name "MARRIOTT", that it would indeed have room service. So please be aware: there is none. The bathroom was moldy in the corner. The fan in the bathroom , loud and annoying. Cant separate the fan from the lights. If u want the light on, enjoy the loud fan in the bathroom. SERVICE: Usually in any hotel you find at least two sides, or two door tags saying" do not disturb", and the other "please service my room". The tag was available only for "im getting some ZZZZss"....so when i asked the maid kindly to make my room, she did acknowledge me with a smile , but my bed was never made or new towels. By the way, to make sure she would get in the room, I did remove the tag in the door. I walked in that evening and found everything the way I left it. The following two mornings, no service still was received. Same as the first day. I only splurged in the nasty coffee in the room , just to have some sort of caffeine in me. Not even real creamers, but those nasty dried up packages of powdered milk. Honestly not sure how long they have been there in their storage area, because they were cracking on the inside and hard. Real tiny creamers would have been nice. They have two packages of regular coffee, and two decaf. For my third day , the day before i have called the desk to see if the cleaners could bring me one package of regular coffee. Didnt think I asked too much. Well, nobody ever got to my room and when I returned to the hotel later in the evening, the front desk didnt even pick up the phone . Granted maybe they were busy checking in other guests. By the way, there are two computers at the check in desk, but only ONE employee that I have seen at all times. Usually hiding in the back room. They would come out only if a guest was about to check in. Not sure if this is normal procedure. Maybe so, since it was NOT  a convention center Marriott with hundreds of rooms .One the upside: I have to admit it, it was quiet and conveniently located on the entrance or exit of the i-45.But I regret so much wasting my free nights in this Marriott when I could have saved them for a much upper scale Marriott which I always love. I will never go back to this place. Over my dead body.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r493891762-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>493891762</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Just average, noisy, lacking in the details</t>
+  </si>
+  <si>
+    <t>Highway and restaurant noise kept me awake most nights.  Bed was firmer than usual at a Marriott property.  No towels in the pool or workout area and desk staff did not seem to know how to get any.  Someone kept taking the do not disturb sign off my door, perhaps they weren't in all rooms, I don't know.  Breakfast bar had bagels but no slider, waffles but no removal fork to get the off the waffle iron.  Construction crews were allowed to take  multiple parking spaces for equipment,and forcing other guests to overflow park in a WalMart lot.  In my opinion, they got this backwards.  All little things, but they add up to a staff and management that isn't paying attention.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Highway and restaurant noise kept me awake most nights.  Bed was firmer than usual at a Marriott property.  No towels in the pool or workout area and desk staff did not seem to know how to get any.  Someone kept taking the do not disturb sign off my door, perhaps they weren't in all rooms, I don't know.  Breakfast bar had bagels but no slider, waffles but no removal fork to get the off the waffle iron.  Construction crews were allowed to take  multiple parking spaces for equipment,and forcing other guests to overflow park in a WalMart lot.  In my opinion, they got this backwards.  All little things, but they add up to a staff and management that isn't paying attention.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r476983216-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>476983216</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Just right for the price</t>
+  </si>
+  <si>
+    <t>We needed a place for a few nights while our home was being painted, but we didn't want to spend a lot. Our room held all 5 of us, we enjoyed the indoor pool, and the free morning breakfast was a great bonus. The staff was friendly and the rooms clean (though a little tired in appearance). All together it was just what we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>We needed a place for a few nights while our home was being painted, but we didn't want to spend a lot. Our room held all 5 of us, we enjoyed the indoor pool, and the free morning breakfast was a great bonus. The staff was friendly and the rooms clean (though a little tired in appearance). All together it was just what we needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r470033309-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>470033309</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Very good experience</t>
+  </si>
+  <si>
+    <t>My son and I were in The Woodlands for a funeral.  Check-in time is 3 p.m., the exact time of the service.  We explained our situation to a sympathetic person at the front desk, and she found us two rooms about 1 p.m.  Rooms were large and clean.  Bed was very comfortable.  TV worked fine.  Internet access was easy.  Bathroom was spotlesss.  Breakfast bar had excellent offerings -- eggs, cereal, pastry, yogurt, the ubiquitous waffle makers.  Attendant was on the ball -- kept supplies full and the bar neat and clean.  We received more than our money's worth.  Would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>My son and I were in The Woodlands for a funeral.  Check-in time is 3 p.m., the exact time of the service.  We explained our situation to a sympathetic person at the front desk, and she found us two rooms about 1 p.m.  Rooms were large and clean.  Bed was very comfortable.  TV worked fine.  Internet access was easy.  Bathroom was spotlesss.  Breakfast bar had excellent offerings -- eggs, cereal, pastry, yogurt, the ubiquitous waffle makers.  Attendant was on the ball -- kept supplies full and the bar neat and clean.  We received more than our money's worth.  Would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r444106509-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>444106509</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Clean room, indoor pool and hot tub</t>
+  </si>
+  <si>
+    <t>Needed a quick trip with our grandson and he needed a pool.   The pool was not heated but was swimmable (a little on the chilly side).  Hot tub was nice.  They could do with a bit better ventilation in the pool area as you could smell the chlorine when you walked in the front door.  We enjoyed our early December stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Needed a quick trip with our grandson and he needed a pool.   The pool was not heated but was swimmable (a little on the chilly side).  Hot tub was nice.  They could do with a bit better ventilation in the pool area as you could smell the chlorine when you walked in the front door.  We enjoyed our early December stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r431745939-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>431745939</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mold and Mildew! </t>
+  </si>
+  <si>
+    <t>Decent hotel except for the overpowering smell of mold and mildew and the black mold in the shower stall. Gross and unhealthy. When you first walk in the lobby, you can smell mildew, but, like me, you might be willing to chalk that up to the indoor pool. I had to sleep with the window open (as far as it would go) just to bring fresh air into the room. I have attached photos of the mold in the bathroom. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Decent hotel except for the overpowering smell of mold and mildew and the black mold in the shower stall. Gross and unhealthy. When you first walk in the lobby, you can smell mildew, but, like me, you might be willing to chalk that up to the indoor pool. I had to sleep with the window open (as far as it would go) just to bring fresh air into the room. I have attached photos of the mold in the bathroom. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r427010350-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>427010350</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>No complaints here! Good breakfast line-up in comparison to other hotels/properties in this category. Rooms were spacious and clean and had nice, modern touches to them. Felt like a studio apartment. Bathroom was great, too. Staff was nice. Parking gets full but not a bad idea just to park out back. Another entrance is back there, so no worries.MoreShow less</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>No complaints here! Good breakfast line-up in comparison to other hotels/properties in this category. Rooms were spacious and clean and had nice, modern touches to them. Felt like a studio apartment. Bathroom was great, too. Staff was nice. Parking gets full but not a bad idea just to park out back. Another entrance is back there, so no worries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r417145219-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>417145219</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Great staff and amazing hospitality!!!</t>
+  </si>
+  <si>
+    <t>I was currently staying at the Days Inn down the road paying almost the same price for worse service and a not-so-satisfying room. When I booked my stay at Fairfield Woodlands, I was more than pleased. Not only did I receive a great competing rate, but the staff was extremely professional and were willing to help me out with any needs or questions I may have had. Both Gerald and Chris are two of the most experienced clerks I have EVER met, and are downright COOL AS HELL. They got me hooked up with an amazing King Suite at an affordable, yet very fair price. The King Suite I am staying in is upstanding as far as cleanliness and comfortability. And the breakfast they offer in the morning is also a great reason to stay at the Fairfield. The offer so much food, and you can really tell that this Marriott location really values it's customers. I could not be any more pleased with my current stay at the Fairfield. Thank you Chris and Gerald! I will definitely be returning the next time I need a hotel in the area!!!Anthony D.The Woodlands, TxMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>I was currently staying at the Days Inn down the road paying almost the same price for worse service and a not-so-satisfying room. When I booked my stay at Fairfield Woodlands, I was more than pleased. Not only did I receive a great competing rate, but the staff was extremely professional and were willing to help me out with any needs or questions I may have had. Both Gerald and Chris are two of the most experienced clerks I have EVER met, and are downright COOL AS HELL. They got me hooked up with an amazing King Suite at an affordable, yet very fair price. The King Suite I am staying in is upstanding as far as cleanliness and comfortability. And the breakfast they offer in the morning is also a great reason to stay at the Fairfield. The offer so much food, and you can really tell that this Marriott location really values it's customers. I could not be any more pleased with my current stay at the Fairfield. Thank you Chris and Gerald! I will definitely be returning the next time I need a hotel in the area!!!Anthony D.The Woodlands, TxMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r401783844-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>401783844</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting remodeled </t>
+  </si>
+  <si>
+    <t>Nice that this older hotel is being remodeled- it needed it. Will be very nice when complete-All new Fairfield design elements and features. Suites are large with a divided living space. Not a lot of lobby space. Convenient location to freeway and woodlands businesses. Quiet location - the trees block a lot of the highway noiseMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Mickey R, Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded August 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2016</t>
+  </si>
+  <si>
+    <t>Nice that this older hotel is being remodeled- it needed it. Will be very nice when complete-All new Fairfield design elements and features. Suites are large with a divided living space. Not a lot of lobby space. Convenient location to freeway and woodlands businesses. Quiet location - the trees block a lot of the highway noiseMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r401486807-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>401486807</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>Hello Fellow Trippers,
+My family and I stayed last night at this hotel. I received a very good price because I bought the room on hotwire. However, the hotel is difficult to find and, once there, we were met with an odd odor that was later to be determined to be related to a massive water leak. Our room was 304. We were only on the first and third floors during our visit, but all the hall floors were covered in plastic. Also, 2 or 3 doors down from our room is where AC work was being performed. Presumably, the source of the water leak. There was no hall light on the third floor, either. I absolutely do not have any expertise in hotel management, but it probably wasn't the best decision to place people so close to where work I'd being done and I'm honestly surprised a hotel can be open with whatever was bad enough to have all the floors (except in the room) covered in plastic. The staff was nice enough. Earlier reviews mentioned home cooked meals being offered to guests on Monday and Wednesday but I saw no evidence of this even though we checked in on a Wednesday evening. I cannot speak to the breakfast, as we opted to eat elsewhere. I think that once everything is repaired, the hotel will provide adequate accommodations for your stay. We had no real issues with our 1...Hello Fellow Trippers,My family and I stayed last night at this hotel. I received a very good price because I bought the room on hotwire. However, the hotel is difficult to find and, once there, we were met with an odd odor that was later to be determined to be related to a massive water leak. Our room was 304. We were only on the first and third floors during our visit, but all the hall floors were covered in plastic. Also, 2 or 3 doors down from our room is where AC work was being performed. Presumably, the source of the water leak. There was no hall light on the third floor, either. I absolutely do not have any expertise in hotel management, but it probably wasn't the best decision to place people so close to where work I'd being done and I'm honestly surprised a hotel can be open with whatever was bad enough to have all the floors (except in the room) covered in plastic. The staff was nice enough. Earlier reviews mentioned home cooked meals being offered to guests on Monday and Wednesday but I saw no evidence of this even though we checked in on a Wednesday evening. I cannot speak to the breakfast, as we opted to eat elsewhere. I think that once everything is repaired, the hotel will provide adequate accommodations for your stay. We had no real issues with our 1 night stay as our room was, once again, adequate. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Hello Fellow Trippers,
+My family and I stayed last night at this hotel. I received a very good price because I bought the room on hotwire. However, the hotel is difficult to find and, once there, we were met with an odd odor that was later to be determined to be related to a massive water leak. Our room was 304. We were only on the first and third floors during our visit, but all the hall floors were covered in plastic. Also, 2 or 3 doors down from our room is where AC work was being performed. Presumably, the source of the water leak. There was no hall light on the third floor, either. I absolutely do not have any expertise in hotel management, but it probably wasn't the best decision to place people so close to where work I'd being done and I'm honestly surprised a hotel can be open with whatever was bad enough to have all the floors (except in the room) covered in plastic. The staff was nice enough. Earlier reviews mentioned home cooked meals being offered to guests on Monday and Wednesday but I saw no evidence of this even though we checked in on a Wednesday evening. I cannot speak to the breakfast, as we opted to eat elsewhere. I think that once everything is repaired, the hotel will provide adequate accommodations for your stay. We had no real issues with our 1...Hello Fellow Trippers,My family and I stayed last night at this hotel. I received a very good price because I bought the room on hotwire. However, the hotel is difficult to find and, once there, we were met with an odd odor that was later to be determined to be related to a massive water leak. Our room was 304. We were only on the first and third floors during our visit, but all the hall floors were covered in plastic. Also, 2 or 3 doors down from our room is where AC work was being performed. Presumably, the source of the water leak. There was no hall light on the third floor, either. I absolutely do not have any expertise in hotel management, but it probably wasn't the best decision to place people so close to where work I'd being done and I'm honestly surprised a hotel can be open with whatever was bad enough to have all the floors (except in the room) covered in plastic. The staff was nice enough. Earlier reviews mentioned home cooked meals being offered to guests on Monday and Wednesday but I saw no evidence of this even though we checked in on a Wednesday evening. I cannot speak to the breakfast, as we opted to eat elsewhere. I think that once everything is repaired, the hotel will provide adequate accommodations for your stay. We had no real issues with our 1 night stay as our room was, once again, adequate. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r390715018-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>390715018</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>clean but very old and smells with very bad air conditioner</t>
+  </si>
+  <si>
+    <t>I was here on business and the reservation was made through the company, so I did not choose this hotel.  The positive points are that the breakfast is substantial with many options to choose from.  There is coffee in the room as well as a very soft bed and softer pillows.  Comfort is quite good and acceptable.  The staff is extremely friendly and courteous.The negatives are that the hotel is quite old and smells.  The room was a smokers room and still has remnants of the smell.  I asked at the front desk when checking in if the air conditioner was able to cool the room.  I was told the young lady had no idea.  I can tell you without reservation that it doesn't. The air conditioner never got the room cool. When I turned it on, I could smell soured water that must have been condensation that stays in the unit.  When I took a shower the room was so humid I had to go outside in the Texas heat to dry off. Although this hotel is serviceable, I would never select this hotel as there are many others in the area for the same price that are much newer and far nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded July 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2016</t>
+  </si>
+  <si>
+    <t>I was here on business and the reservation was made through the company, so I did not choose this hotel.  The positive points are that the breakfast is substantial with many options to choose from.  There is coffee in the room as well as a very soft bed and softer pillows.  Comfort is quite good and acceptable.  The staff is extremely friendly and courteous.The negatives are that the hotel is quite old and smells.  The room was a smokers room and still has remnants of the smell.  I asked at the front desk when checking in if the air conditioner was able to cool the room.  I was told the young lady had no idea.  I can tell you without reservation that it doesn't. The air conditioner never got the room cool. When I turned it on, I could smell soured water that must have been condensation that stays in the unit.  When I took a shower the room was so humid I had to go outside in the Texas heat to dry off. Although this hotel is serviceable, I would never select this hotel as there are many others in the area for the same price that are much newer and far nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r388239432-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>388239432</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Adequate &amp; Convenient</t>
+  </si>
+  <si>
+    <t>Lobby small but designed well. Check in was extremely slow due to inexperienced desk clerk. Manager resolved problem but training is needed. Room was spacious and clean with fridge, No micro. as advertised but not necessary for me. Perpendicular to freeway, so no traffic noise heard. There is an American restaurant next door and a Walmart across the driveway. Currently the property is being renovated, so be forewarned of noise after 9 am.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Mickey R, Front Office Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded July 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2016</t>
+  </si>
+  <si>
+    <t>Lobby small but designed well. Check in was extremely slow due to inexperienced desk clerk. Manager resolved problem but training is needed. Room was spacious and clean with fridge, No micro. as advertised but not necessary for me. Perpendicular to freeway, so no traffic noise heard. There is an American restaurant next door and a Walmart across the driveway. Currently the property is being renovated, so be forewarned of noise after 9 am.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r379401378-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>379401378</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Been Twice &amp; Just As Nice</t>
+  </si>
+  <si>
+    <t>I stayed twice at this hotel in May and I ran into no problems. I didn't have any problem with noise from the highway either....but I was on the other side of the hotel close to Walmart so maybe that is why?Each visit the rooms were nice and clean with no real issues. Each room had a refrigerator and they had a microwave in the lobby to use, if needed. The breakfast was simple but good variety. They had sausage, scrambled eggs, waffle station, mixed cut up fruit, yogurt, dry cereal, muffins, juices, and more. Also, it is conveniently located. There are fast food options near by, Walmart if needed, and countless of restaurants and shopping within a couple of square miles. All in all it was a very good place to stay for a one night layover and will gladly do it again, if needed. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Mickey R, Front Office Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2016</t>
+  </si>
+  <si>
+    <t>I stayed twice at this hotel in May and I ran into no problems. I didn't have any problem with noise from the highway either....but I was on the other side of the hotel close to Walmart so maybe that is why?Each visit the rooms were nice and clean with no real issues. Each room had a refrigerator and they had a microwave in the lobby to use, if needed. The breakfast was simple but good variety. They had sausage, scrambled eggs, waffle station, mixed cut up fruit, yogurt, dry cereal, muffins, juices, and more. Also, it is conveniently located. There are fast food options near by, Walmart if needed, and countless of restaurants and shopping within a couple of square miles. All in all it was a very good place to stay for a one night layover and will gladly do it again, if needed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r366209782-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>366209782</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>freeway noise</t>
+  </si>
+  <si>
+    <t>room was big and clean but very noisy being so close to the freeway.You can walk to walmart and some restaurants easily. Good assortment for breakfast. Overall we would stay there again if passing through.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Mickey R, Guest Relations Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>room was big and clean but very noisy being so close to the freeway.You can walk to walmart and some restaurants easily. Good assortment for breakfast. Overall we would stay there again if passing through.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r354992795-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>354992795</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Pretty good for overnight stay</t>
+  </si>
+  <si>
+    <t>Not a bad hotel by any means and for an overnight stop just fine. I don't expect greatness at this level and the room was fine for our family of 3. Here are the pros and cons:Pros:Very friendly and helpful staffBrought us a rollaway fast Clean bedding and room, bed a little soft but comfortableLocation very convenient, parking easyWifi is greatCons:Noisy - close to a major highway and he walls are thin so corridor noise very apparentThe sofa bed in our room had clearly used bedding still on it Decor is tiredAs I say, no real complaints for this class of hotel, would stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Amber M, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Not a bad hotel by any means and for an overnight stop just fine. I don't expect greatness at this level and the room was fine for our family of 3. Here are the pros and cons:Pros:Very friendly and helpful staffBrought us a rollaway fast Clean bedding and room, bed a little soft but comfortableLocation very convenient, parking easyWifi is greatCons:Noisy - close to a major highway and he walls are thin so corridor noise very apparentThe sofa bed in our room had clearly used bedding still on it Decor is tiredAs I say, no real complaints for this class of hotel, would stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r354185485-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>354185485</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Terrible!</t>
+  </si>
+  <si>
+    <t>Beware! I booked this room based on TA reviews and canceled my reservation after checking in. There was mold growing on the ceiling, the room smelled dirty and there was hair in the bathtub. I asked for a different room, was "upgraded" to a suite and it was worse than the first room! Stay anywhere else! The Springhill Suite is nice and not much more price wise.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Amber M, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Beware! I booked this room based on TA reviews and canceled my reservation after checking in. There was mold growing on the ceiling, the room smelled dirty and there was hair in the bathtub. I asked for a different room, was "upgraded" to a suite and it was worse than the first room! Stay anywhere else! The Springhill Suite is nice and not much more price wise.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r351680259-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>351680259</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Always a safe place</t>
+  </si>
+  <si>
+    <t>You can alway trust Marriott to make your stay comfortable. Modern hotel, indoor pool, hot tub and 24 hr fitness center.  Hot breakfast? Yes please! The only complaint was the single panel windows that allow all the traffic noise in the room. So take your ear plugs and our favorite pillow because the pillows here are so soft you'll wake up in a flat pillow. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Amber M, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded March 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2016</t>
+  </si>
+  <si>
+    <t>You can alway trust Marriott to make your stay comfortable. Modern hotel, indoor pool, hot tub and 24 hr fitness center.  Hot breakfast? Yes please! The only complaint was the single panel windows that allow all the traffic noise in the room. So take your ear plugs and our favorite pillow because the pillows here are so soft you'll wake up in a flat pillow. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r347895337-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>347895337</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Overnighter - Will Stay Again</t>
+  </si>
+  <si>
+    <t>Drove down late from DFW one night for a high school tennis tournament the next day. The hotel is located just off I45 &amp; was easy to find.  Our room was clean, the beds &amp; pillows comfortable. Our status generally gets us a room on an upper floor so we don't have a lot of 'hotel noise' but we arrived so late the only thing left was a room on the first floor.  I was worried that we wouldn't get a good nights sleep but we heard nothing.  My granddaughter wanted to swim the next morning but we were only able to swim for about 15 minutes because the chlorine smell was so strong. Other than the strong chlorine smell the pool was clean &amp; the hot tub was toasty.  Fresh towels were placed around the pool so you didn't have to go looking for them.  Breakfast was a little above normal.&amp; the coffee was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amber M, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Drove down late from DFW one night for a high school tennis tournament the next day. The hotel is located just off I45 &amp; was easy to find.  Our room was clean, the beds &amp; pillows comfortable. Our status generally gets us a room on an upper floor so we don't have a lot of 'hotel noise' but we arrived so late the only thing left was a room on the first floor.  I was worried that we wouldn't get a good nights sleep but we heard nothing.  My granddaughter wanted to swim the next morning but we were only able to swim for about 15 minutes because the chlorine smell was so strong. Other than the strong chlorine smell the pool was clean &amp; the hot tub was toasty.  Fresh towels were placed around the pool so you didn't have to go looking for them.  Breakfast was a little above normal.&amp; the coffee was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r347736005-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>347736005</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>Stayed last night with my son. The hotel is right off IH45, is safe, clean and the customer service is great. So happy we chose this place. Shawn, the front desk guy went out of his way to help me and I really appreciate his assistance. The room was large and the beds very comfortable. Also, the AC in the room was freezing which my son and I loved.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed last night with my son. The hotel is right off IH45, is safe, clean and the customer service is great. So happy we chose this place. Shawn, the front desk guy went out of his way to help me and I really appreciate his assistance. The room was large and the beds very comfortable. Also, the AC in the room was freezing which my son and I loved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r343371003-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>343371003</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We booked this hotel room at the last minute because of a family emergency. We were very pleased at the level of service we received and the quality of our stay. The location was perfect for what we needed. We would stay here again in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Amber M, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2016</t>
+  </si>
+  <si>
+    <t>We booked this hotel room at the last minute because of a family emergency. We were very pleased at the level of service we received and the quality of our stay. The location was perfect for what we needed. We would stay here again in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r339066683-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>339066683</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>Excellent mid-level accomodations</t>
+  </si>
+  <si>
+    <t>Our room was clean and nicely appointed.  I struggle getting a comfortable night's sleep on most hotel books--not a problem here; very comfortable.  The staff was friendly.  For me an indication of great hotel is whether the towels are allowed to wear down before replacement--these were plush.  Broad, tasty assortment for breakfast.  Convenient location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mickey R, Public Relations Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Our room was clean and nicely appointed.  I struggle getting a comfortable night's sleep on most hotel books--not a problem here; very comfortable.  The staff was friendly.  For me an indication of great hotel is whether the towels are allowed to wear down before replacement--these were plush.  Broad, tasty assortment for breakfast.  Convenient location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r338540681-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>338540681</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>Body hair found on towel</t>
+  </si>
+  <si>
+    <t>Our stay was pleasant enough, but requested walk-in shower, none available for a couple of days. When asked about it we were on our way out, so didn't act on  following through at that time. I was constantly frustrated on the fact that our faucets were too short, flooding counter top all round. I truly regret not insisting to change rooms as I hate to make a fuss since the bench is difficult to lift and makes a mess on the floor. The night before checkout, I grabbed a towel from top of the shack, and found to my dismay body hairs all over the side I was about to use, am anal about some things and always check things touching my body. I took pictures of said towel showed the person at the front desk,( she gave us a goody bag, like it would make a difference) left a note on top of the dirty towel on the floor for housekeeping to see.Unsure if this makes a difference, but am very disappointed in this trip compared to last year. There should be a place to include choice of walk-in shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Our stay was pleasant enough, but requested walk-in shower, none available for a couple of days. When asked about it we were on our way out, so didn't act on  following through at that time. I was constantly frustrated on the fact that our faucets were too short, flooding counter top all round. I truly regret not insisting to change rooms as I hate to make a fuss since the bench is difficult to lift and makes a mess on the floor. The night before checkout, I grabbed a towel from top of the shack, and found to my dismay body hairs all over the side I was about to use, am anal about some things and always check things touching my body. I took pictures of said towel showed the person at the front desk,( she gave us a goody bag, like it would make a difference) left a note on top of the dirty towel on the floor for housekeeping to see.Unsure if this makes a difference, but am very disappointed in this trip compared to last year. There should be a place to include choice of walk-in shower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r328432202-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>328432202</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>Happy Travelers</t>
+  </si>
+  <si>
+    <t>We spent two nights at this Fairfield Inn and Suites so we could attend the Renaissance Fair in Plantersville.  From the moment we walked in, Susan and her team did everything they could to make us comfortable.  The rooms were great...we booked 3 and they were all right next to each other and two were adjoining.   Breakfast was great!  Christina made sure everything was well stocked and hot, even on the morning when multiple buses of athletes were dining.   Corrina and the rest of the late crew were also a fabulous help.  This bunch goes above and beyond to make guests feel at home, even when they lose their car keys...:)   We will definitely be staying here on our future trips to the Ren Fair.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Mickey R, Guest Relations Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded January 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2016</t>
+  </si>
+  <si>
+    <t>We spent two nights at this Fairfield Inn and Suites so we could attend the Renaissance Fair in Plantersville.  From the moment we walked in, Susan and her team did everything they could to make us comfortable.  The rooms were great...we booked 3 and they were all right next to each other and two were adjoining.   Breakfast was great!  Christina made sure everything was well stocked and hot, even on the morning when multiple buses of athletes were dining.   Corrina and the rest of the late crew were also a fabulous help.  This bunch goes above and beyond to make guests feel at home, even when they lose their car keys...:)   We will definitely be staying here on our future trips to the Ren Fair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r316280926-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>316280926</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel, Great Staff</t>
+  </si>
+  <si>
+    <t>From the Front Desk staff to the Housekeeping staff, everything was great about my stay.The room was clean and quiet. The hotel was clean and the breakfast buffet was good. I would definitely stay here again. Great staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>From the Front Desk staff to the Housekeeping staff, everything was great about my stay.The room was clean and quiet. The hotel was clean and the breakfast buffet was good. I would definitely stay here again. Great staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r309372791-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>309372791</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Great stay, staff there was wonderful. Yes, it does need updating. But it was very clean. Breakfast was very good, there was eggs, sausage, and turkey bacon, plus waffles, toast, pastries, oatmeal cereal. A lot of variety. We go to The Woodlands often and we will definitely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great stay, staff there was wonderful. Yes, it does need updating. But it was very clean. Breakfast was very good, there was eggs, sausage, and turkey bacon, plus waffles, toast, pastries, oatmeal cereal. A lot of variety. We go to The Woodlands often and we will definitely stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r307647113-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>307647113</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>The hotel was extremely comfortable and clean. Breakfast was decent with eggs, sausage, waffles, and an assortment of breads. If you like soft beds you will love this hotel. They have a nice indoor pool and spa area, also a nice lounge area near the front entrance. Also it is located right next to Walmart.  I will be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was extremely comfortable and clean. Breakfast was decent with eggs, sausage, waffles, and an assortment of breads. If you like soft beds you will love this hotel. They have a nice indoor pool and spa area, also a nice lounge area near the front entrance. Also it is located right next to Walmart.  I will be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r274254824-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>274254824</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just ok . </t>
+  </si>
+  <si>
+    <t>When I first came in I had no one to greet me at the at the front desk. Once I got up to my room it was great. The room was clean ,cool and quite. I bought some candy and I didn't eat all of it I set it on the night stand. When I went to reach for it later that night there were ants all over it . I had issues with the ants the rest of my stay even with no food. The ice machine on 4th floor every time I went too it seem to always be empty. Not to mention the smell of mold and or Body odor by the elevator. Hotel offers laundry machines but when I asked for change they had less then a dollar . I had to go out to gas station. On the plus breakfast was better the I expected. Many choices. The maids were very friendly and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>When I first came in I had no one to greet me at the at the front desk. Once I got up to my room it was great. The room was clean ,cool and quite. I bought some candy and I didn't eat all of it I set it on the night stand. When I went to reach for it later that night there were ants all over it . I had issues with the ants the rest of my stay even with no food. The ice machine on 4th floor every time I went too it seem to always be empty. Not to mention the smell of mold and or Body odor by the elevator. Hotel offers laundry machines but when I asked for change they had less then a dollar . I had to go out to gas station. On the plus breakfast was better the I expected. Many choices. The maids were very friendly and helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r267231701-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>267231701</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Nice Fairfield</t>
+  </si>
+  <si>
+    <t>The place is typical Marriott quality.  This place is a little difficult to find but a very comfortable place. the service is excellent. A few restaurants in a short walk many other a very short drive.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r261544394-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>261544394</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Great Inn, affordable</t>
+  </si>
+  <si>
+    <t>We visitied Conroe, TX to watch my niece try out for Team USA Womens baseball. We had four families visiting ranging from husband and wife to families with three children, We stayed in double Queens, and King rooms. The hotel is in The Woodlands and is close to an abundant amount of shopping areas and restauranst, it is also located next to Walmart store and gas station for convenience. The property is very well kept and the rooms were neat and clean, beds were comfy. I did encounter a problem the first night I was there with a loud booming sound coming from next door, which was odd since I had a corner room. The FD associate attempted to correct the issue without satisfaction, but she really tried. The issue was later resolved with the GM. Aside from the small issue, I had a wondeful time here. The staff was friendly, beds comfy, rooms clean. Will def go back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We visitied Conroe, TX to watch my niece try out for Team USA Womens baseball. We had four families visiting ranging from husband and wife to families with three children, We stayed in double Queens, and King rooms. The hotel is in The Woodlands and is close to an abundant amount of shopping areas and restauranst, it is also located next to Walmart store and gas station for convenience. The property is very well kept and the rooms were neat and clean, beds were comfy. I did encounter a problem the first night I was there with a loud booming sound coming from next door, which was odd since I had a corner room. The FD associate attempted to correct the issue without satisfaction, but she really tried. The issue was later resolved with the GM. Aside from the small issue, I had a wondeful time here. The staff was friendly, beds comfy, rooms clean. Will def go back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r233663267-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>233663267</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>Had to change rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I checked into the hotel last night and the first room I was booked into stunk of mildew and mold so I was offered a direct room on the second floor, it had no smell however did have long black hair on the sheets on one bed and also in the shower. I did not care for I was tired and needed sleep so I slept in the second bed. The staff at the front desk is exceptional excellent for this reason I would suggest staying here. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r230433778-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>230433778</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Surprised me</t>
+  </si>
+  <si>
+    <t>First time staying with this brand and it was a nice surprise. Stayed one night for business and didn't have any complaints. Room was clean (minus a small red stain on comforter) and service was great. I was up late doing some work and there was coffee and fruit available downstairs (in addition to items for purchase). Wifi was quick and breakfast in the morning looked better than your average free hotel breakfast. Would def stay again. Thanks!</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r230417127-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>230417127</t>
+  </si>
+  <si>
+    <t>TRAGIDY TERRIBLE</t>
+  </si>
+  <si>
+    <t>just a terrible place to stay staff was bad specially gm Stephanie bunch. bathrooms were dirty would not even take my dog in there. there is no difference between this place and motel 6. just terrible filthy filthy and filthy.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r226138315-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>226138315</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We attended a concert in The Woodlands and hotel was a great place to stay afterwards. We have stayed here before the renovations and twice after. Great staff, good breakfast, overall a great place to stay. If you want clean rooms and wonderful customer service stay here. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r225261755-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>225261755</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>I would def bring my family to stay.</t>
+  </si>
+  <si>
+    <t>I had a quick stay on this property on a business trip. The hotel is very clean, well maintained, good included breakfast.  Customer service is excellent. Big props to Athena for making me feel appreciated.This is a perfect hotel for a short family stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r224931108-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>224931108</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>I'm a Marriott loyalty club member, and this is the best Fairfield Inn I've ever stayed in.  Very friendly staff, modern public areas, good breakfast, and large room.  We actually had a king executive studio, which was very roomy with a sitting area, microwave and fridge.  Very clean and fresh.  Very convenient location in the heart of The Woodlands, right off of I45.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r195217783-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>195217783</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Total renovation nearing completion</t>
+  </si>
+  <si>
+    <t>I did not realize upon check-in after dark 2/16 this property was under such extensive remodeling.  It seemed to be nearing completion and I think it will be beautiful once completed.  I know some issues with the hotel lay-out are only temporary and the end result will be better than ever!  The entire 3rd floor was closed, but my room on the 2nd floor looked brand new, extremely clean, and very quiet.  Despite the challenges of remaining open during such an extensive remodel their customer service was amazing!  I'm sure it has been hard on them to work through the construction but they did not show it.  They were willing to make whatever accommodations I needed even if it meant staying elsewhere.  I wish I knew the name of their FANTASTIC desk clerk at 8pm that Sunday night.  He was so polite, friendly and helpful.  As I stumbled in exhausted and irritable he greeted me with such a warm smile like he was truly happy I had finally made it.  I felt better immediately!  I know he wanted to do whatever he could to make my stay here pleasant and enjoyable.  I looked forward to returning here again after it's completed.  I love this location so close to St. Luke's and all the near-by retail.  Having a practically  brand-new hotel will be great!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I did not realize upon check-in after dark 2/16 this property was under such extensive remodeling.  It seemed to be nearing completion and I think it will be beautiful once completed.  I know some issues with the hotel lay-out are only temporary and the end result will be better than ever!  The entire 3rd floor was closed, but my room on the 2nd floor looked brand new, extremely clean, and very quiet.  Despite the challenges of remaining open during such an extensive remodel their customer service was amazing!  I'm sure it has been hard on them to work through the construction but they did not show it.  They were willing to make whatever accommodations I needed even if it meant staying elsewhere.  I wish I knew the name of their FANTASTIC desk clerk at 8pm that Sunday night.  He was so polite, friendly and helpful.  As I stumbled in exhausted and irritable he greeted me with such a warm smile like he was truly happy I had finally made it.  I felt better immediately!  I know he wanted to do whatever he could to make my stay here pleasant and enjoyable.  I looked forward to returning here again after it's completed.  I love this location so close to St. Luke's and all the near-by retail.  Having a practically  brand-new hotel will be great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r195209653-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>195209653</t>
+  </si>
+  <si>
+    <t>Freaking fantastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything was in order from the front desk to the housekeeping. We were on the third floor, exactly where the remodeling was taking place. Even the contractors were very accommodating in keeping the hallways clean. We were in a room by the stairs and no noises were disturbing us. I would stay here over and over again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r194186667-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>194186667</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Courteous staff, even during renovations!</t>
+  </si>
+  <si>
+    <t>The staff of this hotel worked diligently to make my stay as pleasant as possible, even during renovations.  Initially, I did not want to stay here because of the construction, but the staff understood and made every effort to accommodate me by calling other hotels.  And I did not even ask them to do that.  They called 2 other hotels very close by and the staff at those hotels were less than friendly.  It was their effort and genuine concern for me and my family that made me realize that if they're this kind and I'm not yet a guest, then they'll be amazing when I am a guest.  I decided to stay.  They did not disappoint.  TJ and Wayne were especially nice and so were others I encountered during my stay.   My stay at this hotel was one of the many awesome experiences I had while in The Woodlands.  Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff of this hotel worked diligently to make my stay as pleasant as possible, even during renovations.  Initially, I did not want to stay here because of the construction, but the staff understood and made every effort to accommodate me by calling other hotels.  And I did not even ask them to do that.  They called 2 other hotels very close by and the staff at those hotels were less than friendly.  It was their effort and genuine concern for me and my family that made me realize that if they're this kind and I'm not yet a guest, then they'll be amazing when I am a guest.  I decided to stay.  They did not disappoint.  TJ and Wayne were especially nice and so were others I encountered during my stay.   My stay at this hotel was one of the many awesome experiences I had while in The Woodlands.  Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r189277272-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>189277272</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>Stayed here a few days ago.  Thought hotel was clean and employees friendly.   Only complaint I had was the noise.  There is a stairway going to the second floor in the lobby.  Our room was right beside it and we  could hear people going up the stairs during the night.   Could also hear  people in the room above walking during the night.  We did not hear traffic from the street.   Other than the noise I would say it was ok.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r184209781-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>184209781</t>
+  </si>
+  <si>
+    <t>11/09/2013</t>
+  </si>
+  <si>
+    <t>Ok, but dated</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located off I45 South, in a shopping mall. The parking lot, the lobby, the hallways, and the room are clean.  The front desk fellow is curt and yet respectful towards customers. The interior pool looks like it is well maintained. The room ac is good, there is no fridge or microwave, there is a coffee maker  and the beds are comfortable to sleep in. But there is just something about being in the room that invokes oldness imagery. Anyone who has stayed in a few different hotels will immediately pick up the bland mostly barren white walls, the simplistic furniture layout and just the lack of 'home' feel.  Yes, it needs to come into the 21st century with regards to room deco, but for all its lack of character, it was neat and acceptable to spend the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located off I45 South, in a shopping mall. The parking lot, the lobby, the hallways, and the room are clean.  The front desk fellow is curt and yet respectful towards customers. The interior pool looks like it is well maintained. The room ac is good, there is no fridge or microwave, there is a coffee maker  and the beds are comfortable to sleep in. But there is just something about being in the room that invokes oldness imagery. Anyone who has stayed in a few different hotels will immediately pick up the bland mostly barren white walls, the simplistic furniture layout and just the lack of 'home' feel.  Yes, it needs to come into the 21st century with regards to room deco, but for all its lack of character, it was neat and acceptable to spend the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r175439807-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>175439807</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>We were in Houston on a family trip and the hotel couldn't have been better. The location was great and it was easy to get in and out of. The proximity to the things we were doing was perfect. The room was good and all of the amenities seemed just right!</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r165923289-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>165923289</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>First Excellent Review Ever!</t>
+  </si>
+  <si>
+    <t>I called late this past Saturday to reserve a room for the same night for my wife and me. Lana answered for the hotel and said she was new. That automatically put me into "Be Cool To The Rookie" mode. I cracked a joke about her being a rookie to calm her down and she laughed. She took the reservation, and wrote down that we wouldn't be there until late that night because we was in town for a party. I told Lana she "Done good" for being new and she thanked me for being patient with her. That was a first. No newbie had ever thanked me for being nice to them.
+After the party, we approached the desk hoping all would go well for us. Michael, the desk clerk, welcomed us and asked how I was doing. I told him I was very tired and gave him my name. My reservation was printed out in front of him, he picked it up and asked if I wanted a room on the first, second, or third floor, Wanting the closest distance between two points, I chose the first floor. Michael handed me the room swipe card and said we were in room 103 and that it was in a very quiet part of the hotel--which it was--and I assured him I would be quiet as well. He laughed and told us about the free breakfast in the morning. I...I called late this past Saturday to reserve a room for the same night for my wife and me. Lana answered for the hotel and said she was new. That automatically put me into "Be Cool To The Rookie" mode. I cracked a joke about her being a rookie to calm her down and she laughed. She took the reservation, and wrote down that we wouldn't be there until late that night because we was in town for a party. I told Lana she "Done good" for being new and she thanked me for being patient with her. That was a first. No newbie had ever thanked me for being nice to them.After the party, we approached the desk hoping all would go well for us. Michael, the desk clerk, welcomed us and asked how I was doing. I told him I was very tired and gave him my name. My reservation was printed out in front of him, he picked it up and asked if I wanted a room on the first, second, or third floor, Wanting the closest distance between two points, I chose the first floor. Michael handed me the room swipe card and said we were in room 103 and that it was in a very quiet part of the hotel--which it was--and I assured him I would be quiet as well. He laughed and told us about the free breakfast in the morning. I thanked him and went to the room. The room was spacious and very clean! The bathroom was also roomy and clean. When I got into bed, it was so comfortable I went to sleep almost immediately.I woke up earlier than I really wanted to because Michael made breakfast sound better than it probably could be. He said is was more than a continental breakfast but not quite a full breakfast. Well, there were waffles, cereal, muffins, juices, milk, Hot Pocket breakfast sandwiches, and great coffee! He was right. Not too fancy but there was just enough to get me off to a good start.There's always something one can nitpick about at any given place but at this Fairfield Inn, everything was a total joy. As we was leaving I told the desk clerk how much I enjoyed it and complimented Michael for having taken care of me the night before. She told me he was new employee! The Fairfield Inn at The Woodlands knows how to hire good folks. I sincerely hope they know how to keep them, too.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I called late this past Saturday to reserve a room for the same night for my wife and me. Lana answered for the hotel and said she was new. That automatically put me into "Be Cool To The Rookie" mode. I cracked a joke about her being a rookie to calm her down and she laughed. She took the reservation, and wrote down that we wouldn't be there until late that night because we was in town for a party. I told Lana she "Done good" for being new and she thanked me for being patient with her. That was a first. No newbie had ever thanked me for being nice to them.
+After the party, we approached the desk hoping all would go well for us. Michael, the desk clerk, welcomed us and asked how I was doing. I told him I was very tired and gave him my name. My reservation was printed out in front of him, he picked it up and asked if I wanted a room on the first, second, or third floor, Wanting the closest distance between two points, I chose the first floor. Michael handed me the room swipe card and said we were in room 103 and that it was in a very quiet part of the hotel--which it was--and I assured him I would be quiet as well. He laughed and told us about the free breakfast in the morning. I...I called late this past Saturday to reserve a room for the same night for my wife and me. Lana answered for the hotel and said she was new. That automatically put me into "Be Cool To The Rookie" mode. I cracked a joke about her being a rookie to calm her down and she laughed. She took the reservation, and wrote down that we wouldn't be there until late that night because we was in town for a party. I told Lana she "Done good" for being new and she thanked me for being patient with her. That was a first. No newbie had ever thanked me for being nice to them.After the party, we approached the desk hoping all would go well for us. Michael, the desk clerk, welcomed us and asked how I was doing. I told him I was very tired and gave him my name. My reservation was printed out in front of him, he picked it up and asked if I wanted a room on the first, second, or third floor, Wanting the closest distance between two points, I chose the first floor. Michael handed me the room swipe card and said we were in room 103 and that it was in a very quiet part of the hotel--which it was--and I assured him I would be quiet as well. He laughed and told us about the free breakfast in the morning. I thanked him and went to the room. The room was spacious and very clean! The bathroom was also roomy and clean. When I got into bed, it was so comfortable I went to sleep almost immediately.I woke up earlier than I really wanted to because Michael made breakfast sound better than it probably could be. He said is was more than a continental breakfast but not quite a full breakfast. Well, there were waffles, cereal, muffins, juices, milk, Hot Pocket breakfast sandwiches, and great coffee! He was right. Not too fancy but there was just enough to get me off to a good start.There's always something one can nitpick about at any given place but at this Fairfield Inn, everything was a total joy. As we was leaving I told the desk clerk how much I enjoyed it and complimented Michael for having taken care of me the night before. She told me he was new employee! The Fairfield Inn at The Woodlands knows how to hire good folks. I sincerely hope they know how to keep them, too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r163733809-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>163733809</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>AC filled with Mold Dirty looking place:(</t>
+  </si>
+  <si>
+    <t>Stayed here because every other option was booked. Should have known.  I walked into my room and immediately start choking from the mildew smell coming from the AC unit. I'm not a complainer but my lungs were closing up. I had to change rooms The second room wasn't much better, but the stinky smell wasn't mold, just dirt.  Come on Marriott Step it up.  Hilton and Holiday Inn are burying Marriott with their newer cleaner images.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard_Valles, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded June 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here because every other option was booked. Should have known.  I walked into my room and immediately start choking from the mildew smell coming from the AC unit. I'm not a complainer but my lungs were closing up. I had to change rooms The second room wasn't much better, but the stinky smell wasn't mold, just dirt.  Come on Marriott Step it up.  Hilton and Holiday Inn are burying Marriott with their newer cleaner images.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r162117650-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>162117650</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Keep looking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is old and appears dirty. The inside of the refrigerator was gross. The traffic from the highway is loud all night long. It was the only hotel available and now we know why!!  The doors, walls, and trim all have missing paint. The decor is old and outdated. They offer very few king beds and even fewer suites!!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r144697459-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>144697459</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We traveled to The Woodlands for a softball tournament.  We traveled 8 hour to get there and we got there before check in time.  The clerk called up and made sure the room was clean and we were able to go to the room.  I really appreciated that since we had been on the road for a long time.  The rooms were very clean and the kids enjoyed the indoor pool.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r144007790-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>144007790</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>Decent Value, Indoor Swimming Pool</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn in The Woodlands has large rooms, a lobby PC with fast Internet, and an indoor swimming pool.  We have stayed here three times because the hotel is a good value for The Woodlands and the staff is friendly.  The eating and small lobby areas areas used as a common areas by guests all day which adds life to an otherwise typical hotel. The indoor swimming pool is very popular for families.  Downside is that the rooms could be a little cleaner.  The hotel is directly in front of a large Wal-Mart, gas stations and several restaurants.  The location is just a few minutes drive from Market Street and Riverwalk.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn in The Woodlands has large rooms, a lobby PC with fast Internet, and an indoor swimming pool.  We have stayed here three times because the hotel is a good value for The Woodlands and the staff is friendly.  The eating and small lobby areas areas used as a common areas by guests all day which adds life to an otherwise typical hotel. The indoor swimming pool is very popular for families.  Downside is that the rooms could be a little cleaner.  The hotel is directly in front of a large Wal-Mart, gas stations and several restaurants.  The location is just a few minutes drive from Market Street and Riverwalk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r142253631-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>142253631</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Another good Marriott property</t>
+  </si>
+  <si>
+    <t>I've stayed here 3 or 4 times over the last two years and have always had a pleasant stay. The stay is friendly and the check in and out process always goes smoothly. Breakfast is good - nothing amazing but it does the job. I've never had any noise problems and always gotten a good nights sleep.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r140448922-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>140448922</t>
+  </si>
+  <si>
+    <t>09/16/2012</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>This is a nice clean hotel with a great location to the freeway and shopping. It was hard to find though. It's kind of hidden behind all the dang trees, hence The Woodlands. :) But I really enjoyed staying here and would definitely stay again. Comfortable bed and pillows. Love that there is an indoor pool and hot tub.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r135663379-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>135663379</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>Nice, clean, family hotel</t>
+  </si>
+  <si>
+    <t>I stayed here 1 night with my 2 young boys. GREAT hotel! Front desk was exceptional. Hotel was very clean. Although I told my boys the indoor pool closed at 10PM it actually closed at 11PM which is great if you're not tired. There is a Wal-Mart in walking distance if you forget something. The hotel is several exits from the center of The Woodlands so it is not in the hub but not too far. I would definately stay here again - very pleased. Breakfast is also included.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r135615526-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>135615526</t>
+  </si>
+  <si>
+    <t>I love this hotel!</t>
+  </si>
+  <si>
+    <t>We are in Houston visiting my wife's family and decided to stay at the Fairfield Inn. When we got here the front desk attendant said "I am sorry sir but we don't have your room type available" and I was immediately thinking "oh great.. here we go again" (lol) then he said "so we upgraded you to an executive suite!" Seeing that we are here for 3 nights I was very happy about this... We have a 3 year old so the suite is definitely being put to good use!This hotel has security at night and is in a pretty nice part of town.. so no need to worry about your car getting broken into.. (That happened to me twice last year..) The only complaint I have had so far would be the fact that the indoor pool was freezing last night. The desk attendant said he would have it raised a few degrees before we return this evening tho. So that should take care of that!I honestly think that I will be staying at some sort of Marriott hotel from now on.. when you pay money to stay somewhere it is nice for the people who work there to appreciate you.. and I definitely feel appreciated here!MoreShow less</t>
+  </si>
+  <si>
+    <t>We are in Houston visiting my wife's family and decided to stay at the Fairfield Inn. When we got here the front desk attendant said "I am sorry sir but we don't have your room type available" and I was immediately thinking "oh great.. here we go again" (lol) then he said "so we upgraded you to an executive suite!" Seeing that we are here for 3 nights I was very happy about this... We have a 3 year old so the suite is definitely being put to good use!This hotel has security at night and is in a pretty nice part of town.. so no need to worry about your car getting broken into.. (That happened to me twice last year..) The only complaint I have had so far would be the fact that the indoor pool was freezing last night. The desk attendant said he would have it raised a few degrees before we return this evening tho. So that should take care of that!I honestly think that I will be staying at some sort of Marriott hotel from now on.. when you pay money to stay somewhere it is nice for the people who work there to appreciate you.. and I definitely feel appreciated here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r121501227-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>121501227</t>
+  </si>
+  <si>
+    <t>12/07/2011</t>
+  </si>
+  <si>
+    <t>"Everything's big in Texas" including the hospitality...</t>
+  </si>
+  <si>
+    <t>Stayed at the Fairfield Inn and Suites in The Woodlands for two weeks while on a business course. Staff were very friendly, knowledgeable about local eateries, points of interest, and able to answer any and all questions we had.Several restaurants near by, (awesome southern barbeque) and conveniently located near shopping etc.Rooms were clean, comfortable, and it's ALWAYS nice to return to freshly baked cookies daily.....Thank you so much for making our stay in Texas so comfortable, and personal.Special thanks to those staff that went "above and beyond" to accomodate our longer-term stay (you know who you are ;-)ZMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>MMSutton, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded December 13, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2011</t>
+  </si>
+  <si>
+    <t>Stayed at the Fairfield Inn and Suites in The Woodlands for two weeks while on a business course. Staff were very friendly, knowledgeable about local eateries, points of interest, and able to answer any and all questions we had.Several restaurants near by, (awesome southern barbeque) and conveniently located near shopping etc.Rooms were clean, comfortable, and it's ALWAYS nice to return to freshly baked cookies daily.....Thank you so much for making our stay in Texas so comfortable, and personal.Special thanks to those staff that went "above and beyond" to accomodate our longer-term stay (you know who you are ;-)ZMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r119611143-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>119611143</t>
+  </si>
+  <si>
+    <t>10/22/2011</t>
+  </si>
+  <si>
+    <t>Super nice and super friendly.</t>
+  </si>
+  <si>
+    <t>Love the hotel good location, good breakfast, wish they had a happy hour.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r118893038-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>118893038</t>
+  </si>
+  <si>
+    <t>10/03/2011</t>
+  </si>
+  <si>
+    <t>A clean, comfortable stay</t>
+  </si>
+  <si>
+    <t>For the price, this is an exceptional hotel. Stayed here on business for three recent nights. Some may say the hotel seems a bit dated depending on what you're used to, but it is very clean and nice. The staff was really friendly and responsive, the hotel is quiet and clean, and my room was one of the most comfortable I've stayed in (I travel on business almost every week). Breakfast has long hours and a good range of choices for any diet, the workout facility is modest but good, and there's a pool. There are many amenities within a hundred yards (I ate, got a haircut, and bought supplies all in the same lot.) Just a caution to those without a car - taxi drivers had troubled finding the hotel and you need to give the taxi at least 15 minutes notice to pick you up. Besides that, I had a very relaxing stay and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>MMSutton, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded October 5, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2011</t>
+  </si>
+  <si>
+    <t>For the price, this is an exceptional hotel. Stayed here on business for three recent nights. Some may say the hotel seems a bit dated depending on what you're used to, but it is very clean and nice. The staff was really friendly and responsive, the hotel is quiet and clean, and my room was one of the most comfortable I've stayed in (I travel on business almost every week). Breakfast has long hours and a good range of choices for any diet, the workout facility is modest but good, and there's a pool. There are many amenities within a hundred yards (I ate, got a haircut, and bought supplies all in the same lot.) Just a caution to those without a car - taxi drivers had troubled finding the hotel and you need to give the taxi at least 15 minutes notice to pick you up. Besides that, I had a very relaxing stay and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r117290342-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>117290342</t>
+  </si>
+  <si>
+    <t>08/26/2011</t>
+  </si>
+  <si>
+    <t>My favorite hotel</t>
+  </si>
+  <si>
+    <t>I am out over 100 nights a year. This is my favorite place to stay for several reasons. First it is easy in and easy out while remaining secluded. There are great places to eat and shop within walking and quick driving distance. But the number one reason I keep coming back is they have an excellent friendly and professional staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>MMSutton, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded August 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2011</t>
+  </si>
+  <si>
+    <t>I am out over 100 nights a year. This is my favorite place to stay for several reasons. First it is easy in and easy out while remaining secluded. There are great places to eat and shop within walking and quick driving distance. But the number one reason I keep coming back is they have an excellent friendly and professional staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r115091130-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>115091130</t>
+  </si>
+  <si>
+    <t>07/06/2011</t>
+  </si>
+  <si>
+    <t>Absolutely Wonderful Experience</t>
+  </si>
+  <si>
+    <t>I had to book a hotel for a baseball team coming to a tournament in Houston.  When we found out we were playing most games in The Woodlands, I called the Residence Inn.  They were full but directed me to the Fairfield Inn, which was the best luck we could have had.  Melanie, the manager, took care of us like no one else has.  She and her staff are the friendliest and most helpful we have had this season.  The rooms are clean and fresh, the internet is fast, and when my flash drive would not work on the house computer, Melanie let me use one of their office computers to print my rosters.  Breakfast is not expansive, but is very good, and they never ran out, which was great, considering they were feeding a team of 17 year old boys.  Check in was fast and easy and check out was the same.  When I got home, I realized that I had left my camera battery and charger in the wall in my room.  I called on the 4th of July, and Melanie told me she had it on her desk and would Fed Ex it to me the next day.  I cannot compliment this hotel enough.  We will definitely use the Fairfield Inn the next time we come to Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>MMSutton, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded July 11, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2011</t>
+  </si>
+  <si>
+    <t>I had to book a hotel for a baseball team coming to a tournament in Houston.  When we found out we were playing most games in The Woodlands, I called the Residence Inn.  They were full but directed me to the Fairfield Inn, which was the best luck we could have had.  Melanie, the manager, took care of us like no one else has.  She and her staff are the friendliest and most helpful we have had this season.  The rooms are clean and fresh, the internet is fast, and when my flash drive would not work on the house computer, Melanie let me use one of their office computers to print my rosters.  Breakfast is not expansive, but is very good, and they never ran out, which was great, considering they were feeding a team of 17 year old boys.  Check in was fast and easy and check out was the same.  When I got home, I realized that I had left my camera battery and charger in the wall in my room.  I called on the 4th of July, and Melanie told me she had it on her desk and would Fed Ex it to me the next day.  I cannot compliment this hotel enough.  We will definitely use the Fairfield Inn the next time we come to Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r91633803-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>91633803</t>
+  </si>
+  <si>
+    <t>01/03/2011</t>
+  </si>
+  <si>
+    <t>Very nice...</t>
+  </si>
+  <si>
+    <t>Some noise from highway.  Within walking distance to shopping and restaurants.  Pleasant staff. Nice indoor pool and exercise room. Good breakfast. Not busy.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>MMSutton, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded January 5, 2011</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2011</t>
+  </si>
+  <si>
+    <t>Some noise from highway.  Within walking distance to shopping and restaurants.  Pleasant staff. Nice indoor pool and exercise room. Good breakfast. Not busy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r19945166-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>19945166</t>
+  </si>
+  <si>
+    <t>09/09/2008</t>
+  </si>
+  <si>
+    <t>Needs work</t>
+  </si>
+  <si>
+    <t>II am a Marriott platinum elite member and stayed at this hotel several times over the last year.  The condition appears to be slipping.  I must first say the people here are great but they alone cannot make me stay here again.  The rooms smell musty and there is mold in the bathroom around the tub and on the ceiling.  The coffee maker did not work and at 7:00 AM they had not made any decaf coffee in the breakfast room although there was a carafe marked for decaf (last stay too).   I will find another place to stay the next time I travel to The Woodlands.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r12326662-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>12326662</t>
+  </si>
+  <si>
+    <t>01/04/2008</t>
+  </si>
+  <si>
+    <t>Texas Charm</t>
+  </si>
+  <si>
+    <t>We stayed at this location because it was close to a party we were going to for New Years Eve.  We did not have a chance to indulge in the pool or free breakfast.  However, I can say that the staff is super friendly and helpful, the beds are comfortable and the room was clean.  Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r3001181-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>3001181</t>
+  </si>
+  <si>
+    <t>01/10/2005</t>
+  </si>
+  <si>
+    <t>Conroe TX Fairfield Inn by Marriott</t>
+  </si>
+  <si>
+    <t>The hotel was very nice a good value for the money. The indoor pool was quite cold every day which was disappointing.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2087,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2119,4476 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>173</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>191</v>
+      </c>
+      <c r="X18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>199</v>
+      </c>
+      <c r="O19" t="s">
+        <v>200</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>227</v>
+      </c>
+      <c r="X22" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>236</v>
+      </c>
+      <c r="X23" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>244</v>
+      </c>
+      <c r="O24" t="s">
+        <v>200</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>245</v>
+      </c>
+      <c r="X24" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>249</v>
+      </c>
+      <c r="J25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>253</v>
+      </c>
+      <c r="O25" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>254</v>
+      </c>
+      <c r="X25" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>258</v>
+      </c>
+      <c r="J26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K26" t="s">
+        <v>260</v>
+      </c>
+      <c r="L26" t="s">
+        <v>261</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>262</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>263</v>
+      </c>
+      <c r="X26" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>267</v>
+      </c>
+      <c r="J27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K27" t="s">
+        <v>269</v>
+      </c>
+      <c r="L27" t="s">
+        <v>270</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>262</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>271</v>
+      </c>
+      <c r="X27" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>275</v>
+      </c>
+      <c r="J28" t="s">
+        <v>276</v>
+      </c>
+      <c r="K28" t="s">
+        <v>277</v>
+      </c>
+      <c r="L28" t="s">
+        <v>278</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>279</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>280</v>
+      </c>
+      <c r="X28" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>284</v>
+      </c>
+      <c r="J29" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>286</v>
+      </c>
+      <c r="L29" t="s">
+        <v>287</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>279</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>288</v>
+      </c>
+      <c r="X29" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>292</v>
+      </c>
+      <c r="J30" t="s">
+        <v>293</v>
+      </c>
+      <c r="K30" t="s">
+        <v>294</v>
+      </c>
+      <c r="L30" t="s">
+        <v>295</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>288</v>
+      </c>
+      <c r="X30" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>298</v>
+      </c>
+      <c r="J31" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s">
+        <v>301</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>302</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>303</v>
+      </c>
+      <c r="X31" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>307</v>
+      </c>
+      <c r="J32" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" t="s">
+        <v>309</v>
+      </c>
+      <c r="L32" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>302</v>
+      </c>
+      <c r="O32" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>311</v>
+      </c>
+      <c r="X32" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>315</v>
+      </c>
+      <c r="J33" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" t="s">
+        <v>318</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>319</v>
+      </c>
+      <c r="O33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>311</v>
+      </c>
+      <c r="X33" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>322</v>
+      </c>
+      <c r="J34" t="s">
+        <v>323</v>
+      </c>
+      <c r="K34" t="s">
+        <v>324</v>
+      </c>
+      <c r="L34" t="s">
+        <v>325</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>326</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>327</v>
+      </c>
+      <c r="X34" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>330</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>331</v>
+      </c>
+      <c r="J35" t="s">
+        <v>332</v>
+      </c>
+      <c r="K35" t="s">
+        <v>333</v>
+      </c>
+      <c r="L35" t="s">
+        <v>334</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>335</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>327</v>
+      </c>
+      <c r="X35" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>337</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>338</v>
+      </c>
+      <c r="J36" t="s">
+        <v>339</v>
+      </c>
+      <c r="K36" t="s">
+        <v>189</v>
+      </c>
+      <c r="L36" t="s">
+        <v>340</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>327</v>
+      </c>
+      <c r="X36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>343</v>
+      </c>
+      <c r="J37" t="s">
+        <v>344</v>
+      </c>
+      <c r="K37" t="s">
+        <v>345</v>
+      </c>
+      <c r="L37" t="s">
+        <v>346</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>348</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>349</v>
+      </c>
+      <c r="J38" t="s">
+        <v>350</v>
+      </c>
+      <c r="K38" t="s">
+        <v>351</v>
+      </c>
+      <c r="L38" t="s">
+        <v>352</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>353</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>361</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>362</v>
+      </c>
+      <c r="J40" t="s">
+        <v>363</v>
+      </c>
+      <c r="K40" t="s">
+        <v>364</v>
+      </c>
+      <c r="L40" t="s">
+        <v>365</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>366</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>373</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>375</v>
+      </c>
+      <c r="J42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K42" t="s">
+        <v>377</v>
+      </c>
+      <c r="L42" t="s">
+        <v>378</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>379</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>381</v>
+      </c>
+      <c r="J43" t="s">
+        <v>376</v>
+      </c>
+      <c r="K43" t="s">
+        <v>382</v>
+      </c>
+      <c r="L43" t="s">
+        <v>383</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>384</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>385</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>386</v>
+      </c>
+      <c r="J44" t="s">
+        <v>387</v>
+      </c>
+      <c r="K44" t="s">
+        <v>189</v>
+      </c>
+      <c r="L44" t="s">
+        <v>388</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>389</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>390</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J45" t="s">
+        <v>392</v>
+      </c>
+      <c r="K45" t="s">
+        <v>393</v>
+      </c>
+      <c r="L45" t="s">
+        <v>394</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>389</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>395</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>396</v>
+      </c>
+      <c r="J46" t="s">
+        <v>397</v>
+      </c>
+      <c r="K46" t="s">
+        <v>398</v>
+      </c>
+      <c r="L46" t="s">
+        <v>399</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>389</v>
+      </c>
+      <c r="O46" t="s">
+        <v>105</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>400</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>401</v>
+      </c>
+      <c r="J47" t="s">
+        <v>402</v>
+      </c>
+      <c r="K47" t="s">
+        <v>403</v>
+      </c>
+      <c r="L47" t="s">
+        <v>404</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>405</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>407</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>408</v>
+      </c>
+      <c r="J48" t="s">
+        <v>402</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>411</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>412</v>
+      </c>
+      <c r="J49" t="s">
+        <v>413</v>
+      </c>
+      <c r="K49" t="s">
+        <v>414</v>
+      </c>
+      <c r="L49" t="s">
+        <v>415</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>405</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>418</v>
+      </c>
+      <c r="J50" t="s">
+        <v>419</v>
+      </c>
+      <c r="K50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L50" t="s">
+        <v>421</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>422</v>
+      </c>
+      <c r="O50" t="s">
+        <v>105</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>423</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>424</v>
+      </c>
+      <c r="J51" t="s">
+        <v>425</v>
+      </c>
+      <c r="K51" t="s">
+        <v>426</v>
+      </c>
+      <c r="L51" t="s">
+        <v>427</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>428</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>431</v>
+      </c>
+      <c r="J52" t="s">
+        <v>432</v>
+      </c>
+      <c r="K52" t="s">
+        <v>433</v>
+      </c>
+      <c r="L52" t="s">
+        <v>434</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>435</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>436</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>437</v>
+      </c>
+      <c r="J53" t="s">
+        <v>438</v>
+      </c>
+      <c r="K53" t="s">
+        <v>439</v>
+      </c>
+      <c r="L53" t="s">
+        <v>440</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>441</v>
+      </c>
+      <c r="O53" t="s">
+        <v>105</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>444</v>
+      </c>
+      <c r="J54" t="s">
+        <v>445</v>
+      </c>
+      <c r="K54" t="s">
+        <v>446</v>
+      </c>
+      <c r="L54" t="s">
+        <v>447</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>448</v>
+      </c>
+      <c r="X54" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>451</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>452</v>
+      </c>
+      <c r="J55" t="s">
+        <v>453</v>
+      </c>
+      <c r="K55" t="s">
+        <v>454</v>
+      </c>
+      <c r="L55" t="s">
+        <v>455</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>456</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>457</v>
+      </c>
+      <c r="J56" t="s">
+        <v>458</v>
+      </c>
+      <c r="K56" t="s">
+        <v>459</v>
+      </c>
+      <c r="L56" t="s">
+        <v>460</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>461</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>462</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>463</v>
+      </c>
+      <c r="J57" t="s">
+        <v>464</v>
+      </c>
+      <c r="K57" t="s">
+        <v>465</v>
+      </c>
+      <c r="L57" t="s">
+        <v>466</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>467</v>
+      </c>
+      <c r="O57" t="s">
+        <v>105</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>469</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>470</v>
+      </c>
+      <c r="J58" t="s">
+        <v>471</v>
+      </c>
+      <c r="K58" t="s">
+        <v>472</v>
+      </c>
+      <c r="L58" t="s">
+        <v>473</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" t="s">
+        <v>477</v>
+      </c>
+      <c r="L59" t="s">
+        <v>478</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>479</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>480</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>481</v>
+      </c>
+      <c r="J60" t="s">
+        <v>482</v>
+      </c>
+      <c r="K60" t="s">
+        <v>483</v>
+      </c>
+      <c r="L60" t="s">
+        <v>484</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>485</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>487</v>
+      </c>
+      <c r="J61" t="s">
+        <v>482</v>
+      </c>
+      <c r="K61" t="s">
+        <v>488</v>
+      </c>
+      <c r="L61" t="s">
+        <v>489</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>485</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>491</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>492</v>
+      </c>
+      <c r="J62" t="s">
+        <v>493</v>
+      </c>
+      <c r="K62" t="s">
+        <v>494</v>
+      </c>
+      <c r="L62" t="s">
+        <v>495</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>496</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>497</v>
+      </c>
+      <c r="X62" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>500</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>501</v>
+      </c>
+      <c r="J63" t="s">
+        <v>502</v>
+      </c>
+      <c r="K63" t="s">
+        <v>503</v>
+      </c>
+      <c r="L63" t="s">
+        <v>504</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>505</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>506</v>
+      </c>
+      <c r="J64" t="s">
+        <v>507</v>
+      </c>
+      <c r="K64" t="s">
+        <v>508</v>
+      </c>
+      <c r="L64" t="s">
+        <v>509</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>510</v>
+      </c>
+      <c r="O64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>511</v>
+      </c>
+      <c r="X64" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>514</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>515</v>
+      </c>
+      <c r="J65" t="s">
+        <v>516</v>
+      </c>
+      <c r="K65" t="s">
+        <v>517</v>
+      </c>
+      <c r="L65" t="s">
+        <v>518</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>519</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>520</v>
+      </c>
+      <c r="X65" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>523</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>524</v>
+      </c>
+      <c r="J66" t="s">
+        <v>525</v>
+      </c>
+      <c r="K66" t="s">
+        <v>526</v>
+      </c>
+      <c r="L66" t="s">
+        <v>527</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>528</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>529</v>
+      </c>
+      <c r="X66" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>532</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>533</v>
+      </c>
+      <c r="J67" t="s">
+        <v>534</v>
+      </c>
+      <c r="K67" t="s">
+        <v>535</v>
+      </c>
+      <c r="L67" t="s">
+        <v>536</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>537</v>
+      </c>
+      <c r="O67" t="s">
+        <v>62</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>538</v>
+      </c>
+      <c r="X67" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>541</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>542</v>
+      </c>
+      <c r="J68" t="s">
+        <v>543</v>
+      </c>
+      <c r="K68" t="s">
+        <v>544</v>
+      </c>
+      <c r="L68" t="s">
+        <v>545</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>546</v>
+      </c>
+      <c r="O68" t="s">
+        <v>200</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>547</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>548</v>
+      </c>
+      <c r="J69" t="s">
+        <v>549</v>
+      </c>
+      <c r="K69" t="s">
+        <v>550</v>
+      </c>
+      <c r="L69" t="s">
+        <v>551</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>552</v>
+      </c>
+      <c r="O69" t="s">
+        <v>105</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>553</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>554</v>
+      </c>
+      <c r="J70" t="s">
+        <v>555</v>
+      </c>
+      <c r="K70" t="s">
+        <v>556</v>
+      </c>
+      <c r="L70" t="s">
+        <v>557</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_244.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_244.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="886">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r608584610-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>56764</t>
+  </si>
+  <si>
+    <t>229525</t>
+  </si>
+  <si>
+    <t>608584610</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Over charged, poor breakfast, and discrimination</t>
+  </si>
+  <si>
+    <t>Immediately upon checking in with my service animal the front desk lady penny came off as snobby due to fact hat I had a service animal. Immediately she says "we don't allow pets here" and I informed her that my pet was a service animal. She then proceeded to ask me for proof and I kindly showed her documentation despite the fact that I did not legally need to. I was charged extra for items from their store because someone claimed they were staying with us and they decided to use my room as a payment method. The breakfast was terrible for many reasons. The bigger Hispanic lady was incredibly rude when I opened the cabinet to find a plate as nothing was being restocked. She said "don't do that, it's for employees only." The eggs were rubbery and the consistency was terrible. The setup was awkward as I had to walk to the end of the buffet line for an English muffin and toaster before going back to get eggs and sausage to make a breakfast sandwich. The coffee was always gone throughout the check In day and half the time it was cold and slimey. The second day here they had a different Hispanic lady working the breakfast area. She was older than the last and looked a bit healthier. She kept things pretty stocked and the eggs were better but she looked like she was working twice...Immediately upon checking in with my service animal the front desk lady penny came off as snobby due to fact hat I had a service animal. Immediately she says "we don't allow pets here" and I informed her that my pet was a service animal. She then proceeded to ask me for proof and I kindly showed her documentation despite the fact that I did not legally need to. I was charged extra for items from their store because someone claimed they were staying with us and they decided to use my room as a payment method. The breakfast was terrible for many reasons. The bigger Hispanic lady was incredibly rude when I opened the cabinet to find a plate as nothing was being restocked. She said "don't do that, it's for employees only." The eggs were rubbery and the consistency was terrible. The setup was awkward as I had to walk to the end of the buffet line for an English muffin and toaster before going back to get eggs and sausage to make a breakfast sandwich. The coffee was always gone throughout the check In day and half the time it was cold and slimey. The second day here they had a different Hispanic lady working the breakfast area. She was older than the last and looked a bit healthier. She kept things pretty stocked and the eggs were better but she looked like she was working twice as hard to make up for the negligence of the other staff in the breakfast area. Our rooms didn't have trash bags in the garbage cans and there was only one big towel and the hand towels with no wash rag. I tried using the internet and tried an Ethernet cord for a Hardline connection and throughout my stay the internet cut in and out even when the hotel was merely half capacity. The lady working the desk at night...Emily I believe..was incredibly pleasant and assisted me with all my needs. I think she'd be better off as a manager than just working at the front desk. I asked for service on my second day in the morning when penny was working and no one ever came to service the room because they were afraid of my service animal. I had  informed them that we were leaving and came back nearly 5 hours later only to find that the room was not serviced. I then asked the next day for service and I remained in the room and it took nearly half the day for someone to come by and when they did it was a large group of housekeepers/employees frantically servicing the room to hurry up and leave as my service animal was there with me. They did an astounding job though it felt kind of Invasive. Every customer deserves the BEST customer service regardless of who they are. The whole time I was there I felt as if I was unwelcome and upon leaving I felt the biased and disrespectful glares at my back.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>margarita g, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Immediately upon checking in with my service animal the front desk lady penny came off as snobby due to fact hat I had a service animal. Immediately she says "we don't allow pets here" and I informed her that my pet was a service animal. She then proceeded to ask me for proof and I kindly showed her documentation despite the fact that I did not legally need to. I was charged extra for items from their store because someone claimed they were staying with us and they decided to use my room as a payment method. The breakfast was terrible for many reasons. The bigger Hispanic lady was incredibly rude when I opened the cabinet to find a plate as nothing was being restocked. She said "don't do that, it's for employees only." The eggs were rubbery and the consistency was terrible. The setup was awkward as I had to walk to the end of the buffet line for an English muffin and toaster before going back to get eggs and sausage to make a breakfast sandwich. The coffee was always gone throughout the check In day and half the time it was cold and slimey. The second day here they had a different Hispanic lady working the breakfast area. She was older than the last and looked a bit healthier. She kept things pretty stocked and the eggs were better but she looked like she was working twice...Immediately upon checking in with my service animal the front desk lady penny came off as snobby due to fact hat I had a service animal. Immediately she says "we don't allow pets here" and I informed her that my pet was a service animal. She then proceeded to ask me for proof and I kindly showed her documentation despite the fact that I did not legally need to. I was charged extra for items from their store because someone claimed they were staying with us and they decided to use my room as a payment method. The breakfast was terrible for many reasons. The bigger Hispanic lady was incredibly rude when I opened the cabinet to find a plate as nothing was being restocked. She said "don't do that, it's for employees only." The eggs were rubbery and the consistency was terrible. The setup was awkward as I had to walk to the end of the buffet line for an English muffin and toaster before going back to get eggs and sausage to make a breakfast sandwich. The coffee was always gone throughout the check In day and half the time it was cold and slimey. The second day here they had a different Hispanic lady working the breakfast area. She was older than the last and looked a bit healthier. She kept things pretty stocked and the eggs were better but she looked like she was working twice as hard to make up for the negligence of the other staff in the breakfast area. Our rooms didn't have trash bags in the garbage cans and there was only one big towel and the hand towels with no wash rag. I tried using the internet and tried an Ethernet cord for a Hardline connection and throughout my stay the internet cut in and out even when the hotel was merely half capacity. The lady working the desk at night...Emily I believe..was incredibly pleasant and assisted me with all my needs. I think she'd be better off as a manager than just working at the front desk. I asked for service on my second day in the morning when penny was working and no one ever came to service the room because they were afraid of my service animal. I had  informed them that we were leaving and came back nearly 5 hours later only to find that the room was not serviced. I then asked the next day for service and I remained in the room and it took nearly half the day for someone to come by and when they did it was a large group of housekeepers/employees frantically servicing the room to hurry up and leave as my service animal was there with me. They did an astounding job though it felt kind of Invasive. Every customer deserves the BEST customer service regardless of who they are. The whole time I was there I felt as if I was unwelcome and upon leaving I felt the biased and disrespectful glares at my back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r588179659-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>588179659</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Will return to this property!</t>
+  </si>
+  <si>
+    <t>We stayed her for a week and had the opportunity to experience the entire hotel and all or most of the staff.  The breakfast was great.  The rooms are comfortable, clean, and nicely decorated.  The location is convenient to shopping, restaurants, I 45, hospitals.  The staff is outstanding, both friendly and helpful.  We enjoyed the pool too.Choosing Fairfield Inn and Suite at The Woodlands is a great choice you won’t regret.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>margarita g, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>We stayed her for a week and had the opportunity to experience the entire hotel and all or most of the staff.  The breakfast was great.  The rooms are comfortable, clean, and nicely decorated.  The location is convenient to shopping, restaurants, I 45, hospitals.  The staff is outstanding, both friendly and helpful.  We enjoyed the pool too.Choosing Fairfield Inn and Suite at The Woodlands is a great choice you won’t regret.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r587292657-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>587292657</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Happy Traveler</t>
+  </si>
+  <si>
+    <t>This hotel conveniently located in the same parking lot as a Walmart, and multiple restaurants within walking distance, but the convenience was not the highlight of this stay.  The most helpful front desk agent by the name of Penny, is to be commended for her wonderful customer service. She was quick to react to multiple requests for itinerary changes, and even recommended a great local restaurant Landry's with a discount card.It was comforting just to see her smiling face behind the counter when returning to the hotel after a long day traveling in traffic in the area. The breakfast was good and they even have those yummy waffles on their buffet.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>margarita g, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>This hotel conveniently located in the same parking lot as a Walmart, and multiple restaurants within walking distance, but the convenience was not the highlight of this stay.  The most helpful front desk agent by the name of Penny, is to be commended for her wonderful customer service. She was quick to react to multiple requests for itinerary changes, and even recommended a great local restaurant Landry's with a discount card.It was comforting just to see her smiling face behind the counter when returning to the hotel after a long day traveling in traffic in the area. The breakfast was good and they even have those yummy waffles on their buffet.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r577233744-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
-    <t>56764</t>
-  </si>
-  <si>
-    <t>229525</t>
-  </si>
-  <si>
     <t>577233744</t>
   </si>
   <si>
@@ -204,9 +291,6 @@
     <t>Cannot day enough about this hotel. It was very clean, the staff is awesome, the hallways were air conditioned and clean, the rooms smelled fresh, minutes from restaurants and shopping. There were so many restaurants to choose from but the Hotel recommended a new place that was wonderful! It is right on off I-45 and Walmart is in walking distance. Can’t say enough about it.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>margarita g, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded April 30, 2018</t>
   </si>
   <si>
@@ -231,12 +315,60 @@
     <t>Front desk agent Penny went above and beyond the call of duty for me!!!  She made my stay exceptional!!!  All staff, including Kara too was helpful and friendly.  Love this hotel.  Great location.  breakfast was great!  I will stay here in the future.   Very convenient location.  Restaurants and shops close by.  Easy access to I-45.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Front desk agent Penny went above and beyond the call of duty for me!!!  She made my stay exceptional!!!  All staff, including Kara too was helpful and friendly.  Love this hotel.  Great location.  breakfast was great!  I will stay here in the future.   Very convenient location.  Restaurants and shops close by.  Easy access to I-45.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r570520006-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>570520006</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Good Deal and Close to Woodlands Mall</t>
+  </si>
+  <si>
+    <t>We stayed one night in March with our grand kids. Mainly the trip was about fun for the grand kids which he had. The price was right. The indoor pool insured fun for the kiddos which they had to themselves both day and night. The pool is handy and kept clean. The rooms are clean and well arranged. We enjoyed the complimentary breakfast. This location is near The Woodlands Mall and very near to a Walmart. Both very necessary with young kids. Also, plenty of restaurants are near by.We had no complaints with the room, beds or bathroom. Check-in and check-out are very easy if you use the Marriott App. We have stayed here before and will continue to stay here when in the area. It is in a good locationMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>margarita g, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2018</t>
+  </si>
+  <si>
+    <t>We stayed one night in March with our grand kids. Mainly the trip was about fun for the grand kids which he had. The price was right. The indoor pool insured fun for the kiddos which they had to themselves both day and night. The pool is handy and kept clean. The rooms are clean and well arranged. We enjoyed the complimentary breakfast. This location is near The Woodlands Mall and very near to a Walmart. Both very necessary with young kids. Also, plenty of restaurants are near by.We had no complaints with the room, beds or bathroom. Check-in and check-out are very easy if you use the Marriott App. We have stayed here before and will continue to stay here when in the area. It is in a good locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r570127294-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>570127294</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Great Deal &amp; Friendly Staff</t>
+  </si>
+  <si>
+    <t>Stayed for two nights and had two rooms and found the hotel clean and welcoming. Penny at the desk was very helpful and friendly. Breakfast was good, room clean, and the lady did a great job staying on top of the dining area.MoreShow less</t>
+  </si>
+  <si>
+    <t>margarita g, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Stayed for two nights and had two rooms and found the hotel clean and welcoming. Penny at the desk was very helpful and friendly. Breakfast was good, room clean, and the lady did a great job staying on top of the dining area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r567236444-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -252,9 +384,6 @@
     <t>I stayed here for one night for work. Check in was easy and the person working the desk was very friendly. The hotel needs updating but the room was fine for what I needed. It wasn't luxurious, but I wasn't expecting it to be. Halls and elevator was old and needs updating. Breakfast is complimentary, which is nice! I had to leave for work before breakfast was served, but they offered me some coffee from the breakfast bar, which I appreciated. Would recommend for a basic stay.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>margarita g, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded March 20, 2018</t>
   </si>
   <si>
@@ -315,15 +444,63 @@
     <t>I spend 133 nights in Marriott Hotels this years and this on and another one in Orlando are on the worst two list.  Obviously they are understaffed and the access to the hotel is not friendly but the part that stroke me the most is the internet censorship they only allow you to access certain website and they block others.  If I'm paying for a room I don't want the hotel to tell me what can or cannot see in the internet.  Outrages me when companies step into peoples business.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r531322560-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>531322560</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Needs deep cleaning; breakfast fine</t>
+  </si>
+  <si>
+    <t>I get that hallways see a lot of traffic. But these looked like they hadn't seen a vacuum in days. The smell when you enter is musty, but I really thought it may have been the indoor pool or even a leftover from Harvey. When we got to the room, there was dental floss in my toilet which just is gross. I actually love dental floss, just not someone elses in the toilet of the room I am renting which I am trying hard to believe had been cleaned. End table, desk, surfaces all had fingerprints as well. Not a $100 per night room for sure. I wouldn't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Travis S, Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>I get that hallways see a lot of traffic. But these looked like they hadn't seen a vacuum in days. The smell when you enter is musty, but I really thought it may have been the indoor pool or even a leftover from Harvey. When we got to the room, there was dental floss in my toilet which just is gross. I actually love dental floss, just not someone elses in the toilet of the room I am renting which I am trying hard to believe had been cleaned. End table, desk, surfaces all had fingerprints as well. Not a $100 per night room for sure. I wouldn't stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r528049784-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>528049784</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Horrible situation made worse</t>
+  </si>
+  <si>
+    <t>Family emergency trip so it's already bad, and then we check in. The staff was neglectful, we had to ask to check in. Our room was initially ok, missing every possible amenity, (coffee pods, toiletries, extra towels). After "cleaning" they sprayed some awful room freshener. I was lied to by staff saying they came to our room to find the source of the smell choking us out. Never happened as we waited in the room for them. When I called AGAIN, the only solution they offered was to "use the room across the hall until the smell fades". Wow. Simply wow. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Family emergency trip so it's already bad, and then we check in. The staff was neglectful, we had to ask to check in. Our room was initially ok, missing every possible amenity, (coffee pods, toiletries, extra towels). After "cleaning" they sprayed some awful room freshener. I was lied to by staff saying they came to our room to find the source of the smell choking us out. Never happened as we waited in the room for them. When I called AGAIN, the only solution they offered was to "use the room across the hall until the smell fades". Wow. Simply wow. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r528006616-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
     <t>528006616</t>
   </si>
   <si>
-    <t>09/28/2017</t>
-  </si>
-  <si>
     <t>Needs a redo</t>
   </si>
   <si>
@@ -336,12 +513,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Management response:Responded September 29, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 29, 2017</t>
-  </si>
-  <si>
     <t>The best things about this place are the price and the bed. Beyond that, not so good. The place has an old smell about it. The window had lost it seal and was fogged up all the time. The outside noises between the interstate and the trains were constantly waking us up. The location is not very convenient. Overall, I think this place could move up with a redo of paint, carpet and better windows. More</t>
   </si>
   <si>
@@ -396,6 +567,57 @@
     <t>We are still here!!! Will see how breakfast is in the morning.When we arrived we saw the pool literally filled with children.  Water all over the floors which made me think this is dangerous!! Liability issue was my first thought!! Staff was great !!!Rooms were surprisingly quiet even if the kids were running up and down halls!! and very clean!!! Had a great stay!!! Everything is close by!!! Will stay here again!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r512162894-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>512162894</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Sunken mattress room 220</t>
+  </si>
+  <si>
+    <t>I have been staying at Marriotts for 20 years and still prefer this company for consistency! Last night was the worst night in my 20 years due to a sunken, useless mattress in room 220. Had I checked before going to bed I would have requested a room change. It was too late. Also the A/C was very noisy and not efficient. Set at 73 the room would get cold. Then it would go up to 76 getting warm before it would turn on again. Check your bed before getting undressed at this Fairfield Inn in the Woodlands. I will check from now on wherever I book a Marriott! MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>I have been staying at Marriotts for 20 years and still prefer this company for consistency! Last night was the worst night in my 20 years due to a sunken, useless mattress in room 220. Had I checked before going to bed I would have requested a room change. It was too late. Also the A/C was very noisy and not efficient. Set at 73 the room would get cold. Then it would go up to 76 getting warm before it would turn on again. Check your bed before getting undressed at this Fairfield Inn in the Woodlands. I will check from now on wherever I book a Marriott! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r506608411-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>506608411</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Cannot recommend</t>
+  </si>
+  <si>
+    <t>The hotel is very difficult to find if arriving from the south.  The lobby and eating areas are nice enough, and the staff eager to be helpful.  However, the hotel was not clean.  Upon arrival, we encountered trash in the window ledge in the stairwell, dirty stairs that had not been vacuumed, and an overall feel that the hallways had not been tended to in some time.  A dirty towel was hanging on the back of the bathroom door, hair was on the bathroom floor and the bathroom door was broken in two.  The sheets on one bed were stained and hair was found in another when we pulled back the covers.  I have stayed here twice in the last couple of years, and hoped my similar experience the first stay was anomalous. Unfortunately, I was proven wrong.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very difficult to find if arriving from the south.  The lobby and eating areas are nice enough, and the staff eager to be helpful.  However, the hotel was not clean.  Upon arrival, we encountered trash in the window ledge in the stairwell, dirty stairs that had not been vacuumed, and an overall feel that the hallways had not been tended to in some time.  A dirty towel was hanging on the back of the bathroom door, hair was on the bathroom floor and the bathroom door was broken in two.  The sheets on one bed were stained and hair was found in another when we pulled back the covers.  I have stayed here twice in the last couple of years, and hoped my similar experience the first stay was anomalous. Unfortunately, I was proven wrong.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r498058069-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -411,9 +633,6 @@
     <t>It was a weekend getaway stay. Cindy at the front desk was very nice and helpful. She was able to tell me where to turn after getting off the elevator. That might sound like a small thing, but these kind of things make a stay special. The room was spacious enough with effective A/C. Breakfast was satisfying. In general this was a great stay.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded July 5, 2017</t>
   </si>
   <si>
@@ -474,6 +693,60 @@
     <t>Highway and restaurant noise kept me awake most nights.  Bed was firmer than usual at a Marriott property.  No towels in the pool or workout area and desk staff did not seem to know how to get any.  Someone kept taking the do not disturb sign off my door, perhaps they weren't in all rooms, I don't know.  Breakfast bar had bagels but no slider, waffles but no removal fork to get the off the waffle iron.  Construction crews were allowed to take  multiple parking spaces for equipment,and forcing other guests to overflow park in a WalMart lot.  In my opinion, they got this backwards.  All little things, but they add up to a staff and management that isn't paying attention.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r484972366-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>484972366</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Quiet, Clean and Easy To Get To</t>
+  </si>
+  <si>
+    <t>The hotel was great. The location was right off the freeway. Even though, it felt secluded and away from the grind. It is close to shopping and restaurants.The mini-fridge and microwave came in handy!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was great. The location was right off the freeway. Even though, it felt secluded and away from the grind. It is close to shopping and restaurants.The mini-fridge and microwave came in handy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r478917542-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>478917542</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Updates needed</t>
+  </si>
+  <si>
+    <t>My daughter, granddaughter,  and myself stayed at this hotel while attending my granddaughter's first communion. The front desk staff was friendly. Upon entering our room there was a strong mildew odor. I did tell the front desk about the problem and she said that due to all the recent rain it effected the air conditioning. They moved us to another room. The second room had a slight mildew smell, but I opened the window to air the room. The breakfast eggs, omelet, and sausages were lukewarm at best. The pool area has safety issues. Near the hot tub a tile covering the filter is not secured and my granddaughter stepped on it, the rile slipped and her foot fell in the hole. Her foot was not seriously hurt, but clearly, it's dangerous. I also let the front desk know about the pool incident. I will not stay at this hotel again. There are too many issues that need to be fixed. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>My daughter, granddaughter,  and myself stayed at this hotel while attending my granddaughter's first communion. The front desk staff was friendly. Upon entering our room there was a strong mildew odor. I did tell the front desk about the problem and she said that due to all the recent rain it effected the air conditioning. They moved us to another room. The second room had a slight mildew smell, but I opened the window to air the room. The breakfast eggs, omelet, and sausages were lukewarm at best. The pool area has safety issues. Near the hot tub a tile covering the filter is not secured and my granddaughter stepped on it, the rile slipped and her foot fell in the hole. Her foot was not seriously hurt, but clearly, it's dangerous. I also let the front desk know about the pool incident. I will not stay at this hotel again. There are too many issues that need to be fixed. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r476983216-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -489,9 +762,6 @@
     <t>We needed a place for a few nights while our home was being painted, but we didn't want to spend a lot. Our room held all 5 of us, we enjoyed the indoor pool, and the free morning breakfast was a great bonus. The staff was friendly and the rooms clean (though a little tired in appearance). All together it was just what we needed.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded April 20, 2017</t>
   </si>
   <si>
@@ -549,6 +819,60 @@
     <t>Needed a quick trip with our grandson and he needed a pool.   The pool was not heated but was swimmable (a little on the chilly side).  Hot tub was nice.  They could do with a bit better ventilation in the pool area as you could smell the chlorine when you walked in the front door.  We enjoyed our early December stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r438843934-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>438843934</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Two Retired Texans</t>
+  </si>
+  <si>
+    <t>Once again this year, we stayed at this Fairfield while attending the Renaissance Fair in Plantersville.  As in the past, the staff was helpful and friendly and the rooms a great value!  Each person we came in contact with at the front desk, was eager to assist us as needed.  Each morning, breakfast was included and with employees like Shea, that meal is quite a treat.  She never stops and is constantly checking to see if you need anything or if there is anything she can do to help.  We will be making our reservations for the 2017 Ren Fair soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Once again this year, we stayed at this Fairfield while attending the Renaissance Fair in Plantersville.  As in the past, the staff was helpful and friendly and the rooms a great value!  Each person we came in contact with at the front desk, was eager to assist us as needed.  Each morning, breakfast was included and with employees like Shea, that meal is quite a treat.  She never stops and is constantly checking to see if you need anything or if there is anything she can do to help.  We will be making our reservations for the 2017 Ren Fair soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r433332524-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>433332524</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfy Hotel</t>
+  </si>
+  <si>
+    <t>Our room was spacious and clean. The queen beds were so comfortable. The staff was very helpful. Located by a Walmart for quick necessities and food was within walking distance. Great for our softball tournament  for four days. Never used the indoor pool but the free breakfast had hot and cold food which was somewhat decent.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Our room was spacious and clean. The queen beds were so comfortable. The staff was very helpful. Located by a Walmart for quick necessities and food was within walking distance. Great for our softball tournament  for four days. Never used the indoor pool but the free breakfast had hot and cold food which was somewhat decent.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r431745939-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -564,9 +888,6 @@
     <t>Decent hotel except for the overpowering smell of mold and mildew and the black mold in the shower stall. Gross and unhealthy. When you first walk in the lobby, you can smell mildew, but, like me, you might be willing to chalk that up to the indoor pool. I had to sleep with the window open (as far as it would go) just to bring fresh air into the room. I have attached photos of the mold in the bathroom. MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded October 27, 2016</t>
   </si>
   <si>
@@ -618,9 +939,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded September 12, 2016</t>
   </si>
   <si>
@@ -628,6 +946,54 @@
   </si>
   <si>
     <t>I was currently staying at the Days Inn down the road paying almost the same price for worse service and a not-so-satisfying room. When I booked my stay at Fairfield Woodlands, I was more than pleased. Not only did I receive a great competing rate, but the staff was extremely professional and were willing to help me out with any needs or questions I may have had. Both Gerald and Chris are two of the most experienced clerks I have EVER met, and are downright COOL AS HELL. They got me hooked up with an amazing King Suite at an affordable, yet very fair price. The King Suite I am staying in is upstanding as far as cleanliness and comfortability. And the breakfast they offer in the morning is also a great reason to stay at the Fairfield. The offer so much food, and you can really tell that this Marriott location really values it's customers. I could not be any more pleased with my current stay at the Fairfield. Thank you Chris and Gerald! I will definitely be returning the next time I need a hotel in the area!!!Anthony D.The Woodlands, TxMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r410825448-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>410825448</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>I always enjoy staying at this Hotel. The staff is absolutely wonderful. I am met with a smile and a good evening when I walk in the door. They watch the smallest of details as they make sure I have the room type and an extra pillow whenever it is possible. Not only is the from desk staff great, housekeeping and the breakfast lady always greet me with smiles and make me feel very important. This is my favorite of all the hotels I visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Mickey R, Front Office Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded August 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2016</t>
+  </si>
+  <si>
+    <t>I always enjoy staying at this Hotel. The staff is absolutely wonderful. I am met with a smile and a good evening when I walk in the door. They watch the smallest of details as they make sure I have the room type and an extra pillow whenever it is possible. Not only is the from desk staff great, housekeeping and the breakfast lady always greet me with smiles and make me feel very important. This is my favorite of all the hotels I visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r410585988-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>410585988</t>
+  </si>
+  <si>
+    <t>Always treated with respect......</t>
+  </si>
+  <si>
+    <t>Chris at checkin will make your experience easy....Micky at checkout will be very efficient...The location is great if you need to do business in the Woodlands...Memorial Hermann Hospital is close....St Lukes Hospital is next door if you do business with the Hospitals......️              Danny WalkerMoreShow less</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Chris at checkin will make your experience easy....Micky at checkout will be very efficient...The location is great if you need to do business in the Woodlands...Memorial Hermann Hospital is close....St Lukes Hospital is next door if you do business with the Hospitals......️              Danny WalkerMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r401783844-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
@@ -673,9 +1039,6 @@
 My family and I stayed last night at this hotel. I received a very good price because I bought the room on hotwire. However, the hotel is difficult to find and, once there, we were met with an odd odor that was later to be determined to be related to a massive water leak. Our room was 304. We were only on the first and third floors during our visit, but all the hall floors were covered in plastic. Also, 2 or 3 doors down from our room is where AC work was being performed. Presumably, the source of the water leak. There was no hall light on the third floor, either. I absolutely do not have any expertise in hotel management, but it probably wasn't the best decision to place people so close to where work I'd being done and I'm honestly surprised a hotel can be open with whatever was bad enough to have all the floors (except in the room) covered in plastic. The staff was nice enough. Earlier reviews mentioned home cooked meals being offered to guests on Monday and Wednesday but I saw no evidence of this even though we checked in on a Wednesday evening. I cannot speak to the breakfast, as we opted to eat elsewhere. I think that once everything is repaired, the hotel will provide adequate accommodations for your stay. We had no real issues with our 1...Hello Fellow Trippers,My family and I stayed last night at this hotel. I received a very good price because I bought the room on hotwire. However, the hotel is difficult to find and, once there, we were met with an odd odor that was later to be determined to be related to a massive water leak. Our room was 304. We were only on the first and third floors during our visit, but all the hall floors were covered in plastic. Also, 2 or 3 doors down from our room is where AC work was being performed. Presumably, the source of the water leak. There was no hall light on the third floor, either. I absolutely do not have any expertise in hotel management, but it probably wasn't the best decision to place people so close to where work I'd being done and I'm honestly surprised a hotel can be open with whatever was bad enough to have all the floors (except in the room) covered in plastic. The staff was nice enough. Earlier reviews mentioned home cooked meals being offered to guests on Monday and Wednesday but I saw no evidence of this even though we checked in on a Wednesday evening. I cannot speak to the breakfast, as we opted to eat elsewhere. I think that once everything is repaired, the hotel will provide adequate accommodations for your stay. We had no real issues with our 1 night stay as our room was, once again, adequate. MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>Diana D, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded August 5, 2016</t>
   </si>
   <si>
@@ -710,6 +1073,57 @@
     <t>I was here on business and the reservation was made through the company, so I did not choose this hotel.  The positive points are that the breakfast is substantial with many options to choose from.  There is coffee in the room as well as a very soft bed and softer pillows.  Comfort is quite good and acceptable.  The staff is extremely friendly and courteous.The negatives are that the hotel is quite old and smells.  The room was a smokers room and still has remnants of the smell.  I asked at the front desk when checking in if the air conditioner was able to cool the room.  I was told the young lady had no idea.  I can tell you without reservation that it doesn't. The air conditioner never got the room cool. When I turned it on, I could smell soured water that must have been condensation that stays in the unit.  When I took a shower the room was so humid I had to go outside in the Texas heat to dry off. Although this hotel is serviceable, I would never select this hotel as there are many others in the area for the same price that are much newer and far nicer.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r390141676-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>390141676</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Its a Fairfield Inn just off the highway. Stayed here many times in 2015 travelling for work. Rooms are always clean, all equipment functional. Staff is friendly and helpful...though they have little flexibility.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Mickey R, Guest Relations Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Its a Fairfield Inn just off the highway. Stayed here many times in 2015 travelling for work. Rooms are always clean, all equipment functional. Staff is friendly and helpful...though they have little flexibility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r389384429-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>389384429</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Not up to Marriott Standards</t>
+  </si>
+  <si>
+    <t>This hotel was just terrible. We were in the Woodlands for a family reunion.  We had problems before arriving when talking with staff.  One of our rooms needed to be canceled and we called the Thursday before arriving.  Spoke with a woman with very little english. After giving her our last name several times (she could never repeat it back correctly) and her trying to cancel the wrong room she finally said "it's ok".  Asked for a confirmation #, she again said it's ok.   After a very long drive we arrived 2 days later at 1:45am.  First, I was told we had not cancelled the other room and I'd have to pay.  After much back an forth regarding who I spoke to and the language issues we had, the night clerk did check the schedule, confirmed the person we talked to and did not require payment.  Our room was awful.  Very run down, mold on the ceiling, not cleaned well etc. There was also an odd smell. We had planned on using the sleeper but there was no bedding so someone had to go back down for that.  Sleeper was in horrible shape and very uncomfortable.  Main bed must be very old.  When you lay on it, if you weren't in the near center the right side dipped toward the floor. The hotel is not sound proofed.  Loud traffic noise from the highway all night.  At 7:30am yard maintenance began...This hotel was just terrible. We were in the Woodlands for a family reunion.  We had problems before arriving when talking with staff.  One of our rooms needed to be canceled and we called the Thursday before arriving.  Spoke with a woman with very little english. After giving her our last name several times (she could never repeat it back correctly) and her trying to cancel the wrong room she finally said "it's ok".  Asked for a confirmation #, she again said it's ok.   After a very long drive we arrived 2 days later at 1:45am.  First, I was told we had not cancelled the other room and I'd have to pay.  After much back an forth regarding who I spoke to and the language issues we had, the night clerk did check the schedule, confirmed the person we talked to and did not require payment.  Our room was awful.  Very run down, mold on the ceiling, not cleaned well etc. There was also an odd smell. We had planned on using the sleeper but there was no bedding so someone had to go back down for that.  Sleeper was in horrible shape and very uncomfortable.  Main bed must be very old.  When you lay on it, if you weren't in the near center the right side dipped toward the floor. The hotel is not sound proofed.  Loud traffic noise from the highway all night.  At 7:30am yard maintenance began outside our room. Lawn mowers, weed eaters and blowers. On a Saturday morning!  Breakfast was poor quality, breads were stale.  We had planned to stay two nights, but cancelled our second night because of the state of the hotel.  Desk clerk in the morning was non committal, never asked how our stay was, just checked us out.  The only good thing I can say about this hotel is that the woman on the night desk was very very professional.  I wish I had gotten her name.  She is the only redeeming quality this hotel has.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mickey R, Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was just terrible. We were in the Woodlands for a family reunion.  We had problems before arriving when talking with staff.  One of our rooms needed to be canceled and we called the Thursday before arriving.  Spoke with a woman with very little english. After giving her our last name several times (she could never repeat it back correctly) and her trying to cancel the wrong room she finally said "it's ok".  Asked for a confirmation #, she again said it's ok.   After a very long drive we arrived 2 days later at 1:45am.  First, I was told we had not cancelled the other room and I'd have to pay.  After much back an forth regarding who I spoke to and the language issues we had, the night clerk did check the schedule, confirmed the person we talked to and did not require payment.  Our room was awful.  Very run down, mold on the ceiling, not cleaned well etc. There was also an odd smell. We had planned on using the sleeper but there was no bedding so someone had to go back down for that.  Sleeper was in horrible shape and very uncomfortable.  Main bed must be very old.  When you lay on it, if you weren't in the near center the right side dipped toward the floor. The hotel is not sound proofed.  Loud traffic noise from the highway all night.  At 7:30am yard maintenance began...This hotel was just terrible. We were in the Woodlands for a family reunion.  We had problems before arriving when talking with staff.  One of our rooms needed to be canceled and we called the Thursday before arriving.  Spoke with a woman with very little english. After giving her our last name several times (she could never repeat it back correctly) and her trying to cancel the wrong room she finally said "it's ok".  Asked for a confirmation #, she again said it's ok.   After a very long drive we arrived 2 days later at 1:45am.  First, I was told we had not cancelled the other room and I'd have to pay.  After much back an forth regarding who I spoke to and the language issues we had, the night clerk did check the schedule, confirmed the person we talked to and did not require payment.  Our room was awful.  Very run down, mold on the ceiling, not cleaned well etc. There was also an odd smell. We had planned on using the sleeper but there was no bedding so someone had to go back down for that.  Sleeper was in horrible shape and very uncomfortable.  Main bed must be very old.  When you lay on it, if you weren't in the near center the right side dipped toward the floor. The hotel is not sound proofed.  Loud traffic noise from the highway all night.  At 7:30am yard maintenance began outside our room. Lawn mowers, weed eaters and blowers. On a Saturday morning!  Breakfast was poor quality, breads were stale.  We had planned to stay two nights, but cancelled our second night because of the state of the hotel.  Desk clerk in the morning was non committal, never asked how our stay was, just checked us out.  The only good thing I can say about this hotel is that the woman on the night desk was very very professional.  I wish I had gotten her name.  She is the only redeeming quality this hotel has.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r388239432-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -791,6 +1205,45 @@
     <t>room was big and clean but very noisy being so close to the freeway.You can walk to walmart and some restaurants easily. Good assortment for breakfast. Overall we would stay there again if passing through.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r363445061-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>363445061</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>You've Been Warned</t>
+  </si>
+  <si>
+    <t>Got there late and was tired.  Got to my room and there was a very loud hum and you could feel a vibration in the furniture.  I think the room was too close to the A/C unit. Got another room and it had an awful musty odor.  Was too tired to switch for the third time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Got there late and was tired.  Got to my room and there was a very loud hum and you could feel a vibration in the furniture.  I think the room was too close to the A/C unit. Got another room and it had an awful musty odor.  Was too tired to switch for the third time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r360749642-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>360749642</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>Next to freeway</t>
+  </si>
+  <si>
+    <t>Ask if there is a room available opposite the freeway-I woke up at 6:00 to traffic noise and couldn't get back to sleep which was discouraging when my alarm was set for 8:30! Room was large, with a sofa bed, but very plain. There was a small refrigerator and microwave at end of dresser. Bed was too soft for me, pillows ok. The breakfast buffet was typical Fairfield breakfast with lots of choices. The evening front desk staff was very friendly- they were prompt to respond to a couple of issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Ask if there is a room available opposite the freeway-I woke up at 6:00 to traffic noise and couldn't get back to sleep which was discouraging when my alarm was set for 8:30! Room was large, with a sofa bed, but very plain. There was a small refrigerator and microwave at end of dresser. Bed was too soft for me, pillows ok. The breakfast buffet was typical Fairfield breakfast with lots of choices. The evening front desk staff was very friendly- they were prompt to respond to a couple of issues.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r354992795-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -806,9 +1259,6 @@
     <t>Not a bad hotel by any means and for an overnight stop just fine. I don't expect greatness at this level and the room was fine for our family of 3. Here are the pros and cons:Pros:Very friendly and helpful staffBrought us a rollaway fast Clean bedding and room, bed a little soft but comfortableLocation very convenient, parking easyWifi is greatCons:Noisy - close to a major highway and he walls are thin so corridor noise very apparentThe sofa bed in our room had clearly used bedding still on it Decor is tiredAs I say, no real complaints for this class of hotel, would stay here againMoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>Amber M, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded March 14, 2016</t>
   </si>
   <si>
@@ -869,15 +1319,60 @@
     <t>You can alway trust Marriott to make your stay comfortable. Modern hotel, indoor pool, hot tub and 24 hr fitness center.  Hot breakfast? Yes please! The only complaint was the single panel windows that allow all the traffic noise in the room. So take your ear plugs and our favorite pillow because the pillows here are so soft you'll wake up in a flat pillow. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r349098844-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>349098844</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>all good</t>
+  </si>
+  <si>
+    <t>Everything was good excellent breakfast clean rooms would not change anything.We booked this room through a third party site for a good  price, not sure of rate if booked directly but I have to say this was the best value I've gotten on any hotel in a long timeMoreShow less</t>
+  </si>
+  <si>
+    <t>Amber M, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Everything was good excellent breakfast clean rooms would not change anything.We booked this room through a third party site for a good  price, not sure of rate if booked directly but I have to say this was the best value I've gotten on any hotel in a long timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r348070320-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>348070320</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel North of Houston Texas.</t>
+  </si>
+  <si>
+    <t>Stopped here on a recent trip and was instantly impressed with the Check in.  Front Desk staff were friendly and helpful in every way.Got to my room on the first floor and it was comfortable and well laid out.Desk will roll around, so you can position it however you like.Free internet, and nice free breakfast as well. Free coffee available 24/7, and a coffee maker in the room as well.  Fridge in room, and although there was no microwave in my room, several rooms do have them, and there is one in the lobby to use anytime.Indoor pool and hot tub are also nice.Good place to stay and great staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mickey R, Front Office Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Stopped here on a recent trip and was instantly impressed with the Check in.  Front Desk staff were friendly and helpful in every way.Got to my room on the first floor and it was comfortable and well laid out.Desk will roll around, so you can position it however you like.Free internet, and nice free breakfast as well. Free coffee available 24/7, and a coffee maker in the room as well.  Fridge in room, and although there was no microwave in my room, several rooms do have them, and there is one in the lobby to use anytime.Indoor pool and hot tub are also nice.Good place to stay and great staff!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r347895337-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
     <t>347895337</t>
   </si>
   <si>
-    <t>02/15/2016</t>
-  </si>
-  <si>
     <t>Overnighter - Will Stay Again</t>
   </si>
   <si>
@@ -938,6 +1433,54 @@
     <t>We booked this hotel room at the last minute because of a family emergency. We were very pleased at the level of service we received and the quality of our stay. The location was perfect for what we needed. We would stay here again in the future!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r342803102-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>342803102</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Nice pool and location.</t>
+  </si>
+  <si>
+    <t>Bed was comfortable but room just okay. Bathroom in room hard on the eyes and needs to be updated. The pool, jacuzzi clean, good temperature and recommended.Self pay laundry on 2nd floor.The free breakfast is mostly the usual continental fixings but also waffles, eggs, sausage, canadian bacon.Coffee served in breakfast dining room throughout the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amber M, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Bed was comfortable but room just okay. Bathroom in room hard on the eyes and needs to be updated. The pool, jacuzzi clean, good temperature and recommended.Self pay laundry on 2nd floor.The free breakfast is mostly the usual continental fixings but also waffles, eggs, sausage, canadian bacon.Coffee served in breakfast dining room throughout the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r340464122-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>340464122</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Take Ear Plugs Here</t>
+  </si>
+  <si>
+    <t>Although the hotel provided the service that I would have expected, the location was difficult to find and in a very congested traffic area.  Worse still was the constant freeway noise all through the night.Breakfast Buffett was good, and employees were friendly.  If sleeping were not a priority I would return, but unlikely to related to above informationMoreShow less</t>
+  </si>
+  <si>
+    <t>Amber M, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded January 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2016</t>
+  </si>
+  <si>
+    <t>Although the hotel provided the service that I would have expected, the location was difficult to find and in a very congested traffic area.  Worse still was the constant freeway noise all through the night.Breakfast Buffett was good, and employees were friendly.  If sleeping were not a priority I would return, but unlikely to related to above informationMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r339066683-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1010,6 +1553,50 @@
     <t>We spent two nights at this Fairfield Inn and Suites so we could attend the Renaissance Fair in Plantersville.  From the moment we walked in, Susan and her team did everything they could to make us comfortable.  The rooms were great...we booked 3 and they were all right next to each other and two were adjoining.   Breakfast was great!  Christina made sure everything was well stocked and hot, even on the morning when multiple buses of athletes were dining.   Corrina and the rest of the late crew were also a fabulous help.  This bunch goes above and beyond to make guests feel at home, even when they lose their car keys...:)   We will definitely be staying here on our future trips to the Ren Fair.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r319577461-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>319577461</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>They overbooked and we were left almost stranded.</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel once before, so we expected a normal experience... but: Imagine! You book a hotel, prepay, then you arrive at midnight after a long trip, so that the next day you can attend a funeral nearby. When you get there, there are several people at the desk, manned by "Francine", who are told that, due to their having a few folks "in training", a mistake was made and that the hotel is booked: no rooms at the inn. She sends a few folks away, then, kindly, she gets to us. "Because you are rewards customers, and bec/ you prepaid, she says, I will find you another hotel; and, bec/ you already paid, it will not cost you a cent as we will get the bill from them." 
+After about 20 minute of her making phone calls, she did direct us to a "sister hotel", Residence Inn on Pinecrest Drive. When we got there, around 1:00 AM, a very rude guy "Meredith" told us that we would have to pay again. When we gently explained that Francine told us that the other hotel would foot the bill, he literally started yelling saying: "I am doing you a favor, take the room, or get out of here". "Francine is not my manager, I am the manager tonight and you must pay again." We got out, tried to get a another hotel, but they were all booked. So we...We stayed at this hotel once before, so we expected a normal experience... but: Imagine! You book a hotel, prepay, then you arrive at midnight after a long trip, so that the next day you can attend a funeral nearby. When you get there, there are several people at the desk, manned by "Francine", who are told that, due to their having a few folks "in training", a mistake was made and that the hotel is booked: no rooms at the inn. She sends a few folks away, then, kindly, she gets to us. "Because you are rewards customers, and bec/ you prepaid, she says, I will find you another hotel; and, bec/ you already paid, it will not cost you a cent as we will get the bill from them." After about 20 minute of her making phone calls, she did direct us to a "sister hotel", Residence Inn on Pinecrest Drive. When we got there, around 1:00 AM, a very rude guy "Meredith" told us that we would have to pay again. When we gently explained that Francine told us that the other hotel would foot the bill, he literally started yelling saying: "I am doing you a favor, take the room, or get out of here". "Francine is not my manager, I am the manager tonight and you must pay again." We got out, tried to get a another hotel, but they were all booked. So we went back to our original hotel where Francine was still trying to explain to more people that the hotel had been overbooked and that she would find them a "sister hotel" nearby. We waited another 30 minutes, finally, Francine (whose voice we could not here bec/ there were 4 rowdy folks horsing around at the lobby), started making phone calls on our behalf. She did find us another hotel, an upgrade. By then it was about 1:30 AM. The new hotel was nice, they were polite, we are thankful for Francine who tried, but we will never understand how they could cause dozens of people being left stranded, in the middle of the night, on a busy weekend, because of overbooking. We will never understand why Francine let 4 rowdy young folks make such noise in the lobby, that nobody could hear what she was trying to say.and.... we will "never" be at this hotel again, nor we would ever recommend the Residence Inn close-by. We have been travelling all our lives and have never experienced such a mess, not even in third world countries.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kari N, Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded October 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel once before, so we expected a normal experience... but: Imagine! You book a hotel, prepay, then you arrive at midnight after a long trip, so that the next day you can attend a funeral nearby. When you get there, there are several people at the desk, manned by "Francine", who are told that, due to their having a few folks "in training", a mistake was made and that the hotel is booked: no rooms at the inn. She sends a few folks away, then, kindly, she gets to us. "Because you are rewards customers, and bec/ you prepaid, she says, I will find you another hotel; and, bec/ you already paid, it will not cost you a cent as we will get the bill from them." 
+After about 20 minute of her making phone calls, she did direct us to a "sister hotel", Residence Inn on Pinecrest Drive. When we got there, around 1:00 AM, a very rude guy "Meredith" told us that we would have to pay again. When we gently explained that Francine told us that the other hotel would foot the bill, he literally started yelling saying: "I am doing you a favor, take the room, or get out of here". "Francine is not my manager, I am the manager tonight and you must pay again." We got out, tried to get a another hotel, but they were all booked. So we...We stayed at this hotel once before, so we expected a normal experience... but: Imagine! You book a hotel, prepay, then you arrive at midnight after a long trip, so that the next day you can attend a funeral nearby. When you get there, there are several people at the desk, manned by "Francine", who are told that, due to their having a few folks "in training", a mistake was made and that the hotel is booked: no rooms at the inn. She sends a few folks away, then, kindly, she gets to us. "Because you are rewards customers, and bec/ you prepaid, she says, I will find you another hotel; and, bec/ you already paid, it will not cost you a cent as we will get the bill from them." After about 20 minute of her making phone calls, she did direct us to a "sister hotel", Residence Inn on Pinecrest Drive. When we got there, around 1:00 AM, a very rude guy "Meredith" told us that we would have to pay again. When we gently explained that Francine told us that the other hotel would foot the bill, he literally started yelling saying: "I am doing you a favor, take the room, or get out of here". "Francine is not my manager, I am the manager tonight and you must pay again." We got out, tried to get a another hotel, but they were all booked. So we went back to our original hotel where Francine was still trying to explain to more people that the hotel had been overbooked and that she would find them a "sister hotel" nearby. We waited another 30 minutes, finally, Francine (whose voice we could not here bec/ there were 4 rowdy folks horsing around at the lobby), started making phone calls on our behalf. She did find us another hotel, an upgrade. By then it was about 1:30 AM. The new hotel was nice, they were polite, we are thankful for Francine who tried, but we will never understand how they could cause dozens of people being left stranded, in the middle of the night, on a busy weekend, because of overbooking. We will never understand why Francine let 4 rowdy young folks make such noise in the lobby, that nobody could hear what she was trying to say.and.... we will "never" be at this hotel again, nor we would ever recommend the Residence Inn close-by. We have been travelling all our lives and have never experienced such a mess, not even in third world countries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r318008510-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>318008510</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>when we arrived we were greeted by friendly professional staff member  that got us situated and to our accommodation  quickly. The room was clean. plenty of outlets for electronics. The Hotel was nice and quiet through the night. Woke up to go down to a full hot breakfast. We will stay again if we are ever in the area...MoreShow less</t>
+  </si>
+  <si>
+    <t>when we arrived we were greeted by friendly professional staff member  that got us situated and to our accommodation  quickly. The room was clean. plenty of outlets for electronics. The Hotel was nice and quiet through the night. Woke up to go down to a full hot breakfast. We will stay again if we are ever in the area...More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r316280926-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1064,6 +1651,47 @@
     <t>The hotel was extremely comfortable and clean. Breakfast was decent with eggs, sausage, waffles, and an assortment of breads. If you like soft beds you will love this hotel. They have a nice indoor pool and spa area, also a nice lounge area near the front entrance. Also it is located right next to Walmart.  I will be back. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r303542741-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>303542741</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Spent two great nights there. Staff friendly and efficient. Clean, mostly comfortable. Accessibility was better than most (one footed traveler). Could rearrange the furniture to improve things. Breakfast below average. Need to upgrade the facilities, but I'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Spent two great nights there. Staff friendly and efficient. Clean, mostly comfortable. Accessibility was better than most (one footed traveler). Could rearrange the furniture to improve things. Breakfast below average. Need to upgrade the facilities, but I'll be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r294572747-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>294572747</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Great staff, but needs update.</t>
+  </si>
+  <si>
+    <t>The strong point of this hotel is their staff, very polite and professional. I was greeted every day with a smile and the entire staff seemed to really care for their guests comfort. However, this is an older property that could use an update . More attention from the cleaning staff would also be a plus. My room had tiny ants all over the counter top. I had no idea where they were coming from.  Every time I would wipe them away, an hour later more lines of ants marching in rows across the counter…. Another issue was little spiders in the bed.  Upon waking up one morning I pulled back the bed covers to discover small spiders. I captured them in a plastic cup and brought it to the attention of the person working the front desk who did make note of the problem. Other issues were mold on the grout of the shower which was unsightly, the bathroom fan was very loud and not working properly, as well as looking like it had not been dusted in years, there was a thick buildup of dust around the vent looked filthy.  The AC was not cooling the room properly, it only seemed to dampen the room. It was like this in the hallways as well, seemed very stuffy and humid, even in the lobby. 
+The hotel did have good towels and the bed was comfortable. The linens/pillows were very...The strong point of this hotel is their staff, very polite and professional. I was greeted every day with a smile and the entire staff seemed to really care for their guests comfort. However, this is an older property that could use an update . More attention from the cleaning staff would also be a plus. My room had tiny ants all over the counter top. I had no idea where they were coming from.  Every time I would wipe them away, an hour later more lines of ants marching in rows across the counter…. Another issue was little spiders in the bed.  Upon waking up one morning I pulled back the bed covers to discover small spiders. I captured them in a plastic cup and brought it to the attention of the person working the front desk who did make note of the problem. Other issues were mold on the grout of the shower which was unsightly, the bathroom fan was very loud and not working properly, as well as looking like it had not been dusted in years, there was a thick buildup of dust around the vent looked filthy.  The AC was not cooling the room properly, it only seemed to dampen the room. It was like this in the hallways as well, seemed very stuffy and humid, even in the lobby. The hotel did have good towels and the bed was comfortable. The linens/pillows were very nice and comfortable as well.  The hotel is located in the back of a Walmart parking lot and directly in front of a 24 hour Exxon gas station convenient store with easy access to the freeway. Unfortunately that same freeway made sleeping in the room a challenge. This is no fault of the hotel, I stay in many hotels in the Woodlands area and all that are located next to 45 freeway have this problem. You would think the hotels would use insulated windows with sound proofing during construction to cut the noise level knowing they are that close to a major freeway. The work out room was small but had newer equipment, there was an indoor pool that was small but clean. The business center is also very small.  This is really a tight cramped hotel with small rooms and very little lobby area. The breakfast was just OK. One waffle maker, eggs, sausage, ham, and the usual pastries. It was adequate but nothing stood out.   All in all, I don’t think I will be back to this Fairfield location until a refurb takes place. Although the staff is pleasant, a good night’s sleep is what I want a hotel for and due to the freeway noise and not seeming all to clean, I will look elsewhere. It’s really a shame Marriott is not putting more into this Fairfield Inn as with the convenient location and great staff it has such good potential to be a nice hotel, but has fallen short due to neglect.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>The strong point of this hotel is their staff, very polite and professional. I was greeted every day with a smile and the entire staff seemed to really care for their guests comfort. However, this is an older property that could use an update . More attention from the cleaning staff would also be a plus. My room had tiny ants all over the counter top. I had no idea where they were coming from.  Every time I would wipe them away, an hour later more lines of ants marching in rows across the counter…. Another issue was little spiders in the bed.  Upon waking up one morning I pulled back the bed covers to discover small spiders. I captured them in a plastic cup and brought it to the attention of the person working the front desk who did make note of the problem. Other issues were mold on the grout of the shower which was unsightly, the bathroom fan was very loud and not working properly, as well as looking like it had not been dusted in years, there was a thick buildup of dust around the vent looked filthy.  The AC was not cooling the room properly, it only seemed to dampen the room. It was like this in the hallways as well, seemed very stuffy and humid, even in the lobby. 
+The hotel did have good towels and the bed was comfortable. The linens/pillows were very...The strong point of this hotel is their staff, very polite and professional. I was greeted every day with a smile and the entire staff seemed to really care for their guests comfort. However, this is an older property that could use an update . More attention from the cleaning staff would also be a plus. My room had tiny ants all over the counter top. I had no idea where they were coming from.  Every time I would wipe them away, an hour later more lines of ants marching in rows across the counter…. Another issue was little spiders in the bed.  Upon waking up one morning I pulled back the bed covers to discover small spiders. I captured them in a plastic cup and brought it to the attention of the person working the front desk who did make note of the problem. Other issues were mold on the grout of the shower which was unsightly, the bathroom fan was very loud and not working properly, as well as looking like it had not been dusted in years, there was a thick buildup of dust around the vent looked filthy.  The AC was not cooling the room properly, it only seemed to dampen the room. It was like this in the hallways as well, seemed very stuffy and humid, even in the lobby. The hotel did have good towels and the bed was comfortable. The linens/pillows were very nice and comfortable as well.  The hotel is located in the back of a Walmart parking lot and directly in front of a 24 hour Exxon gas station convenient store with easy access to the freeway. Unfortunately that same freeway made sleeping in the room a challenge. This is no fault of the hotel, I stay in many hotels in the Woodlands area and all that are located next to 45 freeway have this problem. You would think the hotels would use insulated windows with sound proofing during construction to cut the noise level knowing they are that close to a major freeway. The work out room was small but had newer equipment, there was an indoor pool that was small but clean. The business center is also very small.  This is really a tight cramped hotel with small rooms and very little lobby area. The breakfast was just OK. One waffle maker, eggs, sausage, ham, and the usual pastries. It was adequate but nothing stood out.   All in all, I don’t think I will be back to this Fairfield location until a refurb takes place. Although the staff is pleasant, a good night’s sleep is what I want a hotel for and due to the freeway noise and not seeming all to clean, I will look elsewhere. It’s really a shame Marriott is not putting more into this Fairfield Inn as with the convenient location and great staff it has such good potential to be a nice hotel, but has fallen short due to neglect.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r274254824-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1124,6 +1752,45 @@
     <t>We visitied Conroe, TX to watch my niece try out for Team USA Womens baseball. We had four families visiting ranging from husband and wife to families with three children, We stayed in double Queens, and King rooms. The hotel is in The Woodlands and is close to an abundant amount of shopping areas and restauranst, it is also located next to Walmart store and gas station for convenience. The property is very well kept and the rooms were neat and clean, beds were comfy. I did encounter a problem the first night I was there with a loud booming sound coming from next door, which was odd since I had a corner room. The FD associate attempted to correct the issue without satisfaction, but she really tried. The issue was later resolved with the GM. Aside from the small issue, I had a wondeful time here. The staff was friendly, beds comfy, rooms clean. Will def go back again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r242516425-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>242516425</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>way too expensive for the low quality</t>
+  </si>
+  <si>
+    <t>People were nice and the hotel clean, but way too high a price for this location, even on the big corporate rate. Beds were really soft, as most Fairfields are, so rough night sleep. But I knew what I was getting into. So it was only one night. Could not log onto internet all evening so had to burn cell data plan which was also very discouraging. Would not stay here again due to cost alone.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r242013313-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>242013313</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Great Deal!</t>
+  </si>
+  <si>
+    <t>We booked through a third party.  I got an amazing rate.  I was trying to get a place close to Montgomery.  Unfortunately it was not very close to Montgomery, but we managed.  Check in was swift and easy.  Nice staff.  Clean room!  There was an indoor pool.  I was glad we were not on the first floor, because the kids were having a fantastic time in the pool (they were loud).  They had a laundry room for guest and a small gym.  Our room was really quiet, even though we were sandwiched between Hwy 45 and Walmart.  At breakfast, stay away from the fresh fruit, it tasted a little rancid.  I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We booked through a third party.  I got an amazing rate.  I was trying to get a place close to Montgomery.  Unfortunately it was not very close to Montgomery, but we managed.  Check in was swift and easy.  Nice staff.  Clean room!  There was an indoor pool.  I was glad we were not on the first floor, because the kids were having a fantastic time in the pool (they were loud).  They had a laundry room for guest and a small gym.  Our room was really quiet, even though we were sandwiched between Hwy 45 and Walmart.  At breakfast, stay away from the fresh fruit, it tasted a little rancid.  I will be back!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r233663267-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1842,36 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r226434637-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>226434637</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Awesome Getaway</t>
+  </si>
+  <si>
+    <t>This Hotel was very clean and friendly staff. Everything was within walking distance. The restaurants next door was good and affordable. Wal-Mart was located in back of the hotel. I would stay there on my next trip.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r226313541-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>226313541</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attended a concert at The Pavillion, this hotel was only a short drive away. Hotel was clean, beds were comfortable. Large selection of breakfast items. Staff was very friendly and helpful. The hotel is walking distance to a Walmart and a few restaurants. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r226138315-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1187,9 +1884,6 @@
     <t xml:space="preserve">We attended a concert in The Woodlands and hotel was a great place to stay afterwards. We have stayed here before the renovations and twice after. Great staff, good breakfast, overall a great place to stay. If you want clean rooms and wonderful customer service stay here. </t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r225261755-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1220,6 +1914,39 @@
     <t>I'm a Marriott loyalty club member, and this is the best Fairfield Inn I've ever stayed in.  Very friendly staff, modern public areas, good breakfast, and large room.  We actually had a king executive studio, which was very roomy with a sitting area, microwave and fridge.  Very clean and fresh.  Very convenient location in the heart of The Woodlands, right off of I45.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r222104376-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>222104376</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Phenomenal</t>
+  </si>
+  <si>
+    <t>It was remarkable service, and Athena was a goddess in the flesh. We got off work really late so she was always welcoming to us, even in our extremely tired states. Stephanie was also very sweet and made us feel like family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r204943247-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>204943247</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Wonderful staff- great place to stay!</t>
+  </si>
+  <si>
+    <t>The staff at Fairfield Inn and Suites is wonderful! I have been staying off and on for about a month, and they have always taken wonderful care of me. The breakfast is varied, and the ladies are always making sure that everyone has what they want. The front desk has gone way out of their way to make sure that I am satisfied. The rooms are always clean, cool, and well laid out and the beds are very comfortable. Nice indoor pool,also.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r195217783-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1271,6 +1998,42 @@
     <t>The staff of this hotel worked diligently to make my stay as pleasant as possible, even during renovations.  Initially, I did not want to stay here because of the construction, but the staff understood and made every effort to accommodate me by calling other hotels.  And I did not even ask them to do that.  They called 2 other hotels very close by and the staff at those hotels were less than friendly.  It was their effort and genuine concern for me and my family that made me realize that if they're this kind and I'm not yet a guest, then they'll be amazing when I am a guest.  I decided to stay.  They did not disappoint.  TJ and Wayne were especially nice and so were others I encountered during my stay.   My stay at this hotel was one of the many awesome experiences I had while in The Woodlands.  Thank you.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r191542225-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>191542225</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>I rarely give a poor review. Bring in the service industry I know there are 2 sides to every story. I will give you both. I arrived early on Monday afternoon before 4pm check in. A very nice young man named Teejay helped me. He said they had a lot of business guest but was able to find me a room. Before he assigned the room he explained it was on the 1st floor and there was construction on the 2nd which I appreciated. The construction was between 8:30 and 5.  No problem I was working offsite. He assigned my room and said that they had also relocated the breakfast area due to construction as well. Right across the hall from my room. He mentioned that would be really convenient for me. My "freshly remodeled room" had a fridge that never got cold, no microwave as indicated on the website and no lighting anywhere near the desk. All of these items I discovered at 9pm after I had unpacked and settled in for my 3 night stay. The room was so loud , it faced they highway and parking lot. Then boom a little after 5am I hear everyone prepping for breakfast. Which was even more disappointing.  The toaster didn't work, no juices were available. I am returning to The Woodlands in a week, I will not be staying at this Fairfield inn. I will be staying at the one...I rarely give a poor review. Bring in the service industry I know there are 2 sides to every story. I will give you both. I arrived early on Monday afternoon before 4pm check in. A very nice young man named Teejay helped me. He said they had a lot of business guest but was able to find me a room. Before he assigned the room he explained it was on the 1st floor and there was construction on the 2nd which I appreciated. The construction was between 8:30 and 5.  No problem I was working offsite. He assigned my room and said that they had also relocated the breakfast area due to construction as well. Right across the hall from my room. He mentioned that would be really convenient for me. My "freshly remodeled room" had a fridge that never got cold, no microwave as indicated on the website and no lighting anywhere near the desk. All of these items I discovered at 9pm after I had unpacked and settled in for my 3 night stay. The room was so loud , it faced they highway and parking lot. Then boom a little after 5am I hear everyone prepping for breakfast. Which was even more disappointing.  The toaster didn't work, no juices were available. I am returning to The Woodlands in a week, I will not be staying at this Fairfield inn. I will be staying at the one 5 miles away. There was no mention of the construction on the website when I checked the next morning it was there. I'm sure due to complaintsMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I rarely give a poor review. Bring in the service industry I know there are 2 sides to every story. I will give you both. I arrived early on Monday afternoon before 4pm check in. A very nice young man named Teejay helped me. He said they had a lot of business guest but was able to find me a room. Before he assigned the room he explained it was on the 1st floor and there was construction on the 2nd which I appreciated. The construction was between 8:30 and 5.  No problem I was working offsite. He assigned my room and said that they had also relocated the breakfast area due to construction as well. Right across the hall from my room. He mentioned that would be really convenient for me. My "freshly remodeled room" had a fridge that never got cold, no microwave as indicated on the website and no lighting anywhere near the desk. All of these items I discovered at 9pm after I had unpacked and settled in for my 3 night stay. The room was so loud , it faced they highway and parking lot. Then boom a little after 5am I hear everyone prepping for breakfast. Which was even more disappointing.  The toaster didn't work, no juices were available. I am returning to The Woodlands in a week, I will not be staying at this Fairfield inn. I will be staying at the one...I rarely give a poor review. Bring in the service industry I know there are 2 sides to every story. I will give you both. I arrived early on Monday afternoon before 4pm check in. A very nice young man named Teejay helped me. He said they had a lot of business guest but was able to find me a room. Before he assigned the room he explained it was on the 1st floor and there was construction on the 2nd which I appreciated. The construction was between 8:30 and 5.  No problem I was working offsite. He assigned my room and said that they had also relocated the breakfast area due to construction as well. Right across the hall from my room. He mentioned that would be really convenient for me. My "freshly remodeled room" had a fridge that never got cold, no microwave as indicated on the website and no lighting anywhere near the desk. All of these items I discovered at 9pm after I had unpacked and settled in for my 3 night stay. The room was so loud , it faced they highway and parking lot. Then boom a little after 5am I hear everyone prepping for breakfast. Which was even more disappointing.  The toaster didn't work, no juices were available. I am returning to The Woodlands in a week, I will not be staying at this Fairfield inn. I will be staying at the one 5 miles away. There was no mention of the construction on the website when I checked the next morning it was there. I'm sure due to complaintsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r190044950-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>190044950</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Friendly staff and nice location</t>
+  </si>
+  <si>
+    <t>Location of the hotel is pretty good, there is a Walmart next door and hospital on the opposite side of the road. Indoor pool and exercise room are well kept. Beds and lines smelled fresh and room was decent. Free breakfast is really nice. Staff was friendly and courteous.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r189277272-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +2089,42 @@
   </si>
   <si>
     <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r172072657-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>172072657</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Great location, needs update</t>
+  </si>
+  <si>
+    <t>We have stayed at this location before, so, that is why we stayed again.   The location is perfect. When we checked in, Mike at front desk, was very good.  When entering our room, on the second floor, it was ok.  Not the Marriott standard.....smelled musty, room was very warm, carpet needed cleaning or better yet, replaced, the skirt around the bed had multiple rips.  The bath tub/shower was very slippery..someone could fall. Finally the room cooled off in the middle of the night.  Breakfast area, very clean and good.  The staff was wonderful.   Saw Mike again that evening, again, wanted to know if he could do anything for us...this hotel needs to be brought up to Marriott standards and be updated.  This hotel has alot of things going for them, so in order to keep up with "the Jones" please update....this location.....will keep a check out for this hotel, so hopefully next time things will be updated.   Keep your great employees!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at this location before, so, that is why we stayed again.   The location is perfect. When we checked in, Mike at front desk, was very good.  When entering our room, on the second floor, it was ok.  Not the Marriott standard.....smelled musty, room was very warm, carpet needed cleaning or better yet, replaced, the skirt around the bed had multiple rips.  The bath tub/shower was very slippery..someone could fall. Finally the room cooled off in the middle of the night.  Breakfast area, very clean and good.  The staff was wonderful.   Saw Mike again that evening, again, wanted to know if he could do anything for us...this hotel needs to be brought up to Marriott standards and be updated.  This hotel has alot of things going for them, so in order to keep up with "the Jones" please update....this location.....will keep a check out for this hotel, so hopefully next time things will be updated.   Keep your great employees!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r167582909-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>167582909</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Great comfortable spot</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights and it suited our needs well.  The staff where very friendly and helpful.   The breakfast was well stocked and while basic was all you need.   The gym worked well and parking was easy.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r165923289-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
@@ -1390,6 +2189,39 @@
     <t xml:space="preserve">This place is old and appears dirty. The inside of the refrigerator was gross. The traffic from the highway is loud all night long. It was the only hotel available and now we know why!!  The doors, walls, and trim all have missing paint. The decor is old and outdated. They offer very few king beds and even fewer suites!!  </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r160450152-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>160450152</t>
+  </si>
+  <si>
+    <t>05/12/2013</t>
+  </si>
+  <si>
+    <t>Average value</t>
+  </si>
+  <si>
+    <t>Stayed with a large group on business. Do not expect any luxury but the room was clean and of a good size.  The highway is noisy and the view I had was the Walmart parking lot.  They gave us a good deal due to the size of our group.   I am sure Marriott knows it is time for one of their amazing makeovers at this property.  The location was good with restaurants nearby and a gas station within walking distance for those airport rental returns.  I did not get to use the indoor pool but it looked inviting.   Maybe next time.....</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r151126155-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>151126155</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>This is property is located in a prime spot for restaurants and shopping.  The rooms are spotless and the staff is excellent.  The comp breakfast is great for the value for this hotel.  I'll be back, I love the service!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r144697459-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1444,6 +2276,48 @@
     <t>I've stayed here 3 or 4 times over the last two years and have always had a pleasant stay. The stay is friendly and the check in and out process always goes smoothly. Breakfast is good - nothing amazing but it does the job. I've never had any noise problems and always gotten a good nights sleep.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r141833114-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>141833114</t>
+  </si>
+  <si>
+    <t>10/02/2012</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>We stayed at a Fairfield Inn in Plano in the past. We were hoping this Fairfield would be the same but, we were disappointed. While waiting in the lobby I noticed it had not been vacuumed very well and there was a dead cricket. The front desk staff were not very pleasant. The pool was a little too cold. The bathroom in our room was not totally clean and the coffee maker was in the bathroom not too far from the toilet. The wallpaper was also peeling a little in the bathroom. The breakfast was not that great, it had boiled eggs in stead of scrambled. We will not be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Richard_Valles, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded October 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2012</t>
+  </si>
+  <si>
+    <t>We stayed at a Fairfield Inn in Plano in the past. We were hoping this Fairfield would be the same but, we were disappointed. While waiting in the lobby I noticed it had not been vacuumed very well and there was a dead cricket. The front desk staff were not very pleasant. The pool was a little too cold. The bathroom in our room was not totally clean and the coffee maker was in the bathroom not too far from the toilet. The wallpaper was also peeling a little in the bathroom. The breakfast was not that great, it had boiled eggs in stead of scrambled. We will not be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r140891095-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>140891095</t>
+  </si>
+  <si>
+    <t>09/21/2012</t>
+  </si>
+  <si>
+    <t>needs work</t>
+  </si>
+  <si>
+    <t>hotel needs an upgrade - peeling paint in a few places, etc. disappointing for a marriott property. cleanliness is a problem too: hair in the bathroom on the floor. breakfast was ok, not as nice as courtyard.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r140448922-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1459,9 +2333,6 @@
     <t>This is a nice clean hotel with a great location to the freeway and shopping. It was hard to find though. It's kind of hidden behind all the dang trees, hence The Woodlands. :) But I really enjoyed staying here and would definitely stay again. Comfortable bed and pillows. Love that there is an indoor pool and hot tub.</t>
   </si>
   <si>
-    <t>September 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r135663379-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1495,6 +2366,39 @@
     <t>We are in Houston visiting my wife's family and decided to stay at the Fairfield Inn. When we got here the front desk attendant said "I am sorry sir but we don't have your room type available" and I was immediately thinking "oh great.. here we go again" (lol) then he said "so we upgraded you to an executive suite!" Seeing that we are here for 3 nights I was very happy about this... We have a 3 year old so the suite is definitely being put to good use!This hotel has security at night and is in a pretty nice part of town.. so no need to worry about your car getting broken into.. (That happened to me twice last year..) The only complaint I have had so far would be the fact that the indoor pool was freezing last night. The desk attendant said he would have it raised a few degrees before we return this evening tho. So that should take care of that!I honestly think that I will be staying at some sort of Marriott hotel from now on.. when you pay money to stay somewhere it is nice for the people who work there to appreciate you.. and I definitely feel appreciated here!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r132091655-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>132091655</t>
+  </si>
+  <si>
+    <t>06/16/2012</t>
+  </si>
+  <si>
+    <t>Nice accommodations</t>
+  </si>
+  <si>
+    <t>Stayed at the Fairfield Inn&amp; Suites in the Woodlands for 4 nights while visiting relatives.  Nice accommodations, the complimentary breakfast was fine, and the location is very convenient to expressway access.  Our bathroom could have been a little cleaner.  Since we are Marriott Rewards members, we used points for the room.  I have no complaints for free accommodations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r124804167-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>124804167</t>
+  </si>
+  <si>
+    <t>02/19/2012</t>
+  </si>
+  <si>
+    <t>Room at the last minute - staff great</t>
+  </si>
+  <si>
+    <t>Great staff who had a room ready for me at the last minute - I had reservations just down the highway, didn't stay there due to the room doors were outside &amp; that just makes me too nervous. The staff at the front desk of The Fairfield understood when I got there and had a room ready and were so pleasant and accommodating.  Free internet - very fast. Free breakfast was good.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r121501227-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1564,6 +2468,48 @@
     <t>For the price, this is an exceptional hotel. Stayed here on business for three recent nights. Some may say the hotel seems a bit dated depending on what you're used to, but it is very clean and nice. The staff was really friendly and responsive, the hotel is quiet and clean, and my room was one of the most comfortable I've stayed in (I travel on business almost every week). Breakfast has long hours and a good range of choices for any diet, the workout facility is modest but good, and there's a pool. There are many amenities within a hundred yards (I ate, got a haircut, and bought supplies all in the same lot.) Just a caution to those without a car - taxi drivers had troubled finding the hotel and you need to give the taxi at least 15 minutes notice to pick you up. Besides that, I had a very relaxing stay and would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r118267136-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>118267136</t>
+  </si>
+  <si>
+    <t>09/18/2011</t>
+  </si>
+  <si>
+    <t>FINAN FAMILY 5 NIGHT STAY</t>
+  </si>
+  <si>
+    <t>here for grandsons wedding.  wife and i with our 5 children and their spouses.  could not ask for better accommodations or treatment from your staff.. what really prompted this commen, was the outstanding assist from dixie bell the desk clerk and sherry booshart the attendent in charge of your unforgetable breakfast.  these girls went above and beyound their normal duties and deserve special recognition. please convey our gratitude to them.                                                                              richard m finan lt/col (ret) usaf             ps:looking forward to our next stay with you in the nashville area in novMoreShow less</t>
+  </si>
+  <si>
+    <t>MMSutton, General Manager at Fairfield Inn &amp; Suites Houston The Woodlands, responded to this reviewResponded September 20, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2011</t>
+  </si>
+  <si>
+    <t>here for grandsons wedding.  wife and i with our 5 children and their spouses.  could not ask for better accommodations or treatment from your staff.. what really prompted this commen, was the outstanding assist from dixie bell the desk clerk and sherry booshart the attendent in charge of your unforgetable breakfast.  these girls went above and beyound their normal duties and deserve special recognition. please convey our gratitude to them.                                                                              richard m finan lt/col (ret) usaf             ps:looking forward to our next stay with you in the nashville area in novMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r118014773-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>118014773</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Sherry Bosshart</t>
+  </si>
+  <si>
+    <t>Sherry Bosshart went above and beyond the call of duty to assist our family during our stay.  She took extra care of us at breakfast and assisted us devotedly.  There were approximately 20 in our family party and she served us fabulously.Thank you Sherry,The Finan FamilyMoreShow less</t>
+  </si>
+  <si>
+    <t>Sherry Bosshart went above and beyond the call of duty to assist our family during our stay.  She took extra care of us at breakfast and assisted us devotedly.  There were approximately 20 in our family party and she served us fabulously.Thank you Sherry,The Finan FamilyMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r117290342-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1643,6 +2589,48 @@
   </si>
   <si>
     <t>Some noise from highway.  Within walking distance to shopping and restaurants.  Pleasant staff. Nice indoor pool and exercise room. Good breakfast. Not busy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r26179795-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>26179795</t>
+  </si>
+  <si>
+    <t>03/14/2009</t>
+  </si>
+  <si>
+    <t>We really enjoy this location... going back next week :)</t>
+  </si>
+  <si>
+    <t>I read a couple of the other reviews &amp; thought I would share since we have always had a great experience here. We have gone 3 times in the past year  just to get the kids out for a night. The Woodlands is beautiful! I picked this location because it was close to where we want to be in the area &amp; it turned out great. Our rooms have always been extremely clean from top to bottom &amp; never smell musty as stated in another review. (We have stayed in both a Queen/Queen &amp; The King Suite on different occasions) The kids love the pool. The breakfast bar is just a regular breakfast bar, nothing fancy, nothing shabby. The staff is very pleasant &amp; our favorite thing about the location is that it is QUIET. Most of the guests are on business travel so it is peaceful. We will be going again next week &amp; if our stay is anything less than what I have stated here I will follow up.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>I read a couple of the other reviews &amp; thought I would share since we have always had a great experience here. We have gone 3 times in the past year  just to get the kids out for a night. The Woodlands is beautiful! I picked this location because it was close to where we want to be in the area &amp; it turned out great. Our rooms have always been extremely clean from top to bottom &amp; never smell musty as stated in another review. (We have stayed in both a Queen/Queen &amp; The King Suite on different occasions) The kids love the pool. The breakfast bar is just a regular breakfast bar, nothing fancy, nothing shabby. The staff is very pleasant &amp; our favorite thing about the location is that it is QUIET. Most of the guests are on business travel so it is peaceful. We will be going again next week &amp; if our stay is anything less than what I have stated here I will follow up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r21720079-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>21720079</t>
+  </si>
+  <si>
+    <t>11/10/2008</t>
+  </si>
+  <si>
+    <t>You'd be Better off somewhere else ...</t>
+  </si>
+  <si>
+    <t>We stayed here the nights of Saturday, November 8th through Tuesday, November 9th.  We were truly disappointed and would have selected a different hotel if we had not prepaid for our stay and were worried about getting a refund.First off, let me start off by saying the staff are incredibly friendly and helpful.  Also, the pool and hot tub area are great!!Now .. to the problems.  The rooms smell musky and the bathrooms are moldy!!!! The toilets have mold at the base, the edges of the sink and dark black mold, and the bath tub has large patches of mold where the plastic of the tub meets the wall.  ... This is just utterly disgusting to me.They brag about a large continental breakfast but when you get there (even at the start of it) half of everything is missing.  They boast fresh breakfast sandwiches but all 3 of the mornings we've been down there they haven't been anywhere in sight.  Also, there are only 3-4 boiled eggs put out each morning. And, the milk and yogurt case was not refilled once from Saturday to Monday.  That means on Monday morning we were trying to feed off of the slim pickings from the weekend.  Sad sight .... For $110 a night, I would look somewhere else.  This place was no better than a 1 star motel 6 or super 8 across the rest of the country.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>We stayed here the nights of Saturday, November 8th through Tuesday, November 9th.  We were truly disappointed and would have selected a different hotel if we had not prepaid for our stay and were worried about getting a refund.First off, let me start off by saying the staff are incredibly friendly and helpful.  Also, the pool and hot tub area are great!!Now .. to the problems.  The rooms smell musky and the bathrooms are moldy!!!! The toilets have mold at the base, the edges of the sink and dark black mold, and the bath tub has large patches of mold where the plastic of the tub meets the wall.  ... This is just utterly disgusting to me.They brag about a large continental breakfast but when you get there (even at the start of it) half of everything is missing.  They boast fresh breakfast sandwiches but all 3 of the mornings we've been down there they haven't been anywhere in sight.  Also, there are only 3-4 boiled eggs put out each morning. And, the milk and yogurt case was not refilled once from Saturday to Monday.  That means on Monday morning we were trying to feed off of the slim pickings from the weekend.  Sad sight .... For $110 a night, I would look somewhere else.  This place was no better than a 1 star motel 6 or super 8 across the rest of the country.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d229525-r19945166-Fairfield_Inn_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
@@ -2228,7 +3216,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2292,10 +3280,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2307,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -2329,7 +3317,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2338,43 +3326,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2390,7 +3384,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2399,25 +3393,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2429,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -2451,7 +3445,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2460,22 +3454,22 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
@@ -2490,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -2512,7 +3506,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2521,47 +3515,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -2577,7 +3567,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2586,32 +3576,38 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -2661,14 +3657,22 @@
       <c r="M9" t="n">
         <v>5</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -2719,10 +3723,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2734,13 +3738,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
         <v>123</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>124</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -2756,58 +3760,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>126</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>127</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>128</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>129</v>
       </c>
-      <c r="L11" t="s">
-        <v>130</v>
-      </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
         <v>132</v>
-      </c>
-      <c r="X11" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12">
@@ -2823,58 +3821,56 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
         <v>135</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>136</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>137</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
         <v>138</v>
       </c>
-      <c r="L12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>140</v>
-      </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
         <v>141</v>
-      </c>
-      <c r="X12" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -2890,56 +3886,56 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
         <v>144</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>145</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>146</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
         <v>147</v>
       </c>
-      <c r="L13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>140</v>
-      </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
         <v>149</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>150</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -2955,35 +3951,31 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>152</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>153</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>154</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>155</v>
       </c>
-      <c r="L14" t="s">
-        <v>156</v>
-      </c>
       <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>157</v>
-      </c>
-      <c r="O14" t="s">
-        <v>62</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -2994,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
         <v>158</v>
-      </c>
-      <c r="X14" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -3016,56 +4008,52 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
         <v>161</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>162</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
         <v>163</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O15" t="s">
         <v>164</v>
       </c>
-      <c r="L15" t="s">
-        <v>165</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>166</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
@@ -3081,58 +4069,48 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
         <v>168</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>169</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>170</v>
       </c>
-      <c r="K16" t="s">
-        <v>171</v>
-      </c>
-      <c r="L16" t="s">
-        <v>172</v>
-      </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
-      <c r="N16" t="s">
-        <v>173</v>
-      </c>
-      <c r="O16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="X16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
@@ -3148,34 +4126,34 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
         <v>177</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>178</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>179</v>
       </c>
-      <c r="K17" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" t="s">
-        <v>181</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>182</v>
-      </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3187,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
@@ -3209,56 +4187,52 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
         <v>186</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>187</v>
       </c>
-      <c r="J18" t="s">
-        <v>188</v>
-      </c>
-      <c r="K18" t="s">
-        <v>189</v>
-      </c>
-      <c r="L18" t="s">
-        <v>190</v>
-      </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
@@ -3274,58 +4248,58 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s">
         <v>194</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>195</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
         <v>196</v>
       </c>
-      <c r="K19" t="s">
-        <v>197</v>
-      </c>
-      <c r="L19" t="s">
-        <v>198</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>199</v>
-      </c>
       <c r="O19" t="s">
-        <v>200</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
@@ -3341,52 +4315,58 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s">
         <v>204</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>205</v>
-      </c>
-      <c r="J20" t="s">
-        <v>206</v>
-      </c>
-      <c r="K20" t="s">
-        <v>207</v>
-      </c>
-      <c r="L20" t="s">
-        <v>208</v>
-      </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
@@ -3402,52 +4382,58 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>213</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>214</v>
-      </c>
-      <c r="J21" t="s">
-        <v>215</v>
-      </c>
-      <c r="K21" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" t="s">
-        <v>217</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>218</v>
-      </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
@@ -3463,7 +4449,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3472,47 +4458,47 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="n">
+      <c r="R22" t="n">
         <v>4</v>
       </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="X22" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
@@ -3528,56 +4514,56 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>230</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>231</v>
-      </c>
-      <c r="J23" t="s">
-        <v>232</v>
-      </c>
-      <c r="K23" t="s">
-        <v>233</v>
-      </c>
-      <c r="L23" t="s">
-        <v>234</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>235</v>
-      </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="X23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
@@ -3593,34 +4579,34 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
         <v>239</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>240</v>
-      </c>
-      <c r="J24" t="s">
-        <v>241</v>
-      </c>
-      <c r="K24" t="s">
-        <v>242</v>
-      </c>
-      <c r="L24" t="s">
-        <v>243</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>244</v>
-      </c>
       <c r="O24" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3632,13 +4618,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="X24" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
@@ -3654,7 +4640,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3663,47 +4649,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s">
-        <v>105</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="X25" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
@@ -3719,7 +4701,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3728,43 +4710,47 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J26" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="X26" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="Y26" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
@@ -3780,7 +4766,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3789,43 +4775,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="X27" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
@@ -3841,7 +4833,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3850,43 +4842,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J28" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="X28" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
@@ -3902,7 +4900,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3911,25 +4909,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K29" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3947,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="X29" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Y29" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30">
@@ -3969,7 +4967,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3978,25 +4976,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J30" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K30" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L30" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4008,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="X30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31">
@@ -4030,43 +5028,41 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>294</v>
+      </c>
+      <c r="J31" t="s">
+        <v>295</v>
+      </c>
+      <c r="K31" t="s">
+        <v>296</v>
+      </c>
+      <c r="L31" t="s">
         <v>297</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>298</v>
-      </c>
-      <c r="J31" t="s">
-        <v>299</v>
-      </c>
-      <c r="K31" t="s">
-        <v>300</v>
-      </c>
-      <c r="L31" t="s">
-        <v>301</v>
-      </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -4075,13 +5071,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="X31" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Y31" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
@@ -4097,43 +5093,43 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" t="s">
+        <v>305</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>306</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>307</v>
-      </c>
-      <c r="J32" t="s">
-        <v>308</v>
-      </c>
-      <c r="K32" t="s">
-        <v>309</v>
-      </c>
-      <c r="L32" t="s">
-        <v>310</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>302</v>
-      </c>
       <c r="O32" t="s">
-        <v>105</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -4142,13 +5138,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="X32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Y32" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33">
@@ -4164,58 +5160,56 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>311</v>
+      </c>
+      <c r="J33" t="s">
+        <v>312</v>
+      </c>
+      <c r="K33" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" t="s">
         <v>314</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>315</v>
       </c>
-      <c r="J33" t="s">
-        <v>316</v>
-      </c>
-      <c r="K33" t="s">
-        <v>317</v>
-      </c>
-      <c r="L33" t="s">
-        <v>318</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>319</v>
-      </c>
       <c r="O33" t="s">
-        <v>105</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="X33" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Y33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34">
@@ -4231,39 +5225,37 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>319</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>320</v>
+      </c>
+      <c r="J34" t="s">
+        <v>312</v>
+      </c>
+      <c r="K34" t="s">
         <v>321</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>322</v>
       </c>
-      <c r="J34" t="s">
-        <v>323</v>
-      </c>
-      <c r="K34" t="s">
-        <v>324</v>
-      </c>
-      <c r="L34" t="s">
-        <v>325</v>
-      </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
         <v>5</v>
       </c>
@@ -4276,13 +5268,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="X34" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Y34" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35">
@@ -4298,58 +5290,52 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>327</v>
+      </c>
+      <c r="J35" t="s">
+        <v>328</v>
+      </c>
+      <c r="K35" t="s">
+        <v>329</v>
+      </c>
+      <c r="L35" t="s">
         <v>330</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
         <v>331</v>
       </c>
-      <c r="J35" t="s">
-        <v>332</v>
-      </c>
-      <c r="K35" t="s">
-        <v>333</v>
-      </c>
-      <c r="L35" t="s">
-        <v>334</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>335</v>
-      </c>
       <c r="O35" t="s">
-        <v>71</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="X35" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Y35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
@@ -4365,31 +5351,35 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>335</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>336</v>
+      </c>
+      <c r="J36" t="s">
         <v>337</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>338</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>339</v>
       </c>
-      <c r="K36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L36" t="s">
-        <v>340</v>
-      </c>
       <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>315</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
@@ -4400,13 +5390,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="X36" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="Y36" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37">
@@ -4422,7 +5412,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4431,39 +5421,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>331</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="X37" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="Y37" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38">
@@ -4479,7 +5477,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4488,39 +5486,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J38" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K38" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>357</v>
+      </c>
+      <c r="X38" t="s">
+        <v>358</v>
+      </c>
       <c r="Y38" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39">
@@ -4536,7 +5544,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4545,45 +5553,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="J39" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>365</v>
+      </c>
+      <c r="X39" t="s">
+        <v>366</v>
+      </c>
       <c r="Y39" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40">
@@ -4599,7 +5611,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4608,45 +5620,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="J40" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K40" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>374</v>
+      </c>
+      <c r="X40" t="s">
+        <v>375</v>
+      </c>
       <c r="Y40" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41">
@@ -4662,7 +5676,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4671,25 +5685,25 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="K41" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4700,10 +5714,14 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>383</v>
+      </c>
+      <c r="X41" t="s">
+        <v>384</v>
+      </c>
       <c r="Y41" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42">
@@ -4719,7 +5737,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4728,43 +5746,47 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="K42" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="L42" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
-      </c>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>392</v>
+      </c>
+      <c r="X42" t="s">
+        <v>393</v>
+      </c>
       <c r="Y42" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
@@ -4780,7 +5802,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4789,43 +5811,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="J43" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="K43" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="L43" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
-      </c>
-      <c r="P43" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
       <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>392</v>
+      </c>
+      <c r="X43" t="s">
+        <v>393</v>
+      </c>
       <c r="Y43" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44">
@@ -4841,7 +5869,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4850,39 +5878,49 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="J44" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="K44" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="L44" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
-      </c>
-      <c r="P44" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>392</v>
+      </c>
+      <c r="X44" t="s">
+        <v>393</v>
+      </c>
       <c r="Y44" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45">
@@ -4898,7 +5936,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4907,45 +5945,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="J45" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="K45" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="L45" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>413</v>
+      </c>
+      <c r="X45" t="s">
+        <v>414</v>
+      </c>
       <c r="Y45" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46">
@@ -4961,7 +5997,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4970,45 +6006,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="J46" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="K46" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="L46" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="O46" t="s">
-        <v>105</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>421</v>
+      </c>
+      <c r="X46" t="s">
+        <v>422</v>
+      </c>
       <c r="Y46" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47">
@@ -5024,7 +6058,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5033,49 +6067,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="L47" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>430</v>
+      </c>
+      <c r="X47" t="s">
+        <v>431</v>
+      </c>
       <c r="Y47" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48">
@@ -5091,7 +6119,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5100,35 +6128,47 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="J48" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
-      <c r="P48" t="s"/>
+      <c r="N48" t="s">
+        <v>429</v>
+      </c>
+      <c r="O48" t="s">
+        <v>82</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>438</v>
+      </c>
+      <c r="X48" t="s">
+        <v>439</v>
+      </c>
       <c r="Y48" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49">
@@ -5144,7 +6184,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5153,38 +6193,32 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="J49" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="K49" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="L49" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
         <v>5</v>
@@ -5192,10 +6226,14 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>446</v>
+      </c>
+      <c r="X49" t="s">
+        <v>447</v>
+      </c>
       <c r="Y49" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50">
@@ -5211,7 +6249,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5220,49 +6258,49 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="J50" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="K50" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="L50" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="O50" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
         <v>4</v>
       </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>453</v>
+      </c>
+      <c r="X50" t="s">
+        <v>454</v>
+      </c>
       <c r="Y50" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51">
@@ -5278,7 +6316,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5287,49 +6325,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="J51" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="K51" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="L51" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>3</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>453</v>
+      </c>
+      <c r="X51" t="s">
+        <v>454</v>
+      </c>
       <c r="Y51" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52">
@@ -5345,7 +6377,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5354,32 +6386,28 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="J52" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="K52" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="L52" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="O52" t="s">
-        <v>62</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
         <v>5</v>
       </c>
@@ -5393,10 +6421,14 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>468</v>
+      </c>
+      <c r="X52" t="s">
+        <v>469</v>
+      </c>
       <c r="Y52" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53">
@@ -5412,7 +6444,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5421,49 +6453,43 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="J53" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="K53" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="L53" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="O53" t="s">
-        <v>105</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>476</v>
+      </c>
+      <c r="X53" t="s">
+        <v>477</v>
+      </c>
       <c r="Y53" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54">
@@ -5479,7 +6505,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5488,49 +6514,43 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="J54" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="K54" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="L54" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="n">
         <v>3</v>
       </c>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
-      <c r="R54" t="n">
-        <v>3</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2</v>
-      </c>
+      <c r="N54" t="s">
+        <v>467</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>3</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="X54" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="Y54" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55">
@@ -5546,7 +6566,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5555,45 +6575,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="J55" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="K55" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="L55" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
-      </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>467</v>
+      </c>
+      <c r="O55" t="s">
+        <v>164</v>
+      </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>492</v>
+      </c>
+      <c r="X55" t="s">
+        <v>493</v>
+      </c>
       <c r="Y55" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56">
@@ -5609,7 +6633,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5618,49 +6642,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="J56" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="K56" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="L56" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>492</v>
+      </c>
+      <c r="X56" t="s">
+        <v>493</v>
+      </c>
       <c r="Y56" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57">
@@ -5676,7 +6700,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5685,49 +6709,49 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="J57" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="K57" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="L57" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="O57" t="s">
-        <v>105</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
-      </c>
-      <c r="S57" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>508</v>
+      </c>
+      <c r="X57" t="s">
+        <v>509</v>
+      </c>
       <c r="Y57" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58">
@@ -5743,7 +6767,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5752,45 +6776,49 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="J58" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="K58" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="L58" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>356</v>
+      </c>
+      <c r="O58" t="s">
+        <v>164</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>516</v>
+      </c>
+      <c r="X58" t="s">
+        <v>517</v>
+      </c>
       <c r="Y58" t="s">
-        <v>473</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59">
@@ -5806,7 +6834,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>474</v>
+        <v>519</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5815,49 +6843,43 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="J59" t="s">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="K59" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="L59" t="s">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>479</v>
+        <v>356</v>
       </c>
       <c r="O59" t="s">
         <v>53</v>
       </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>508</v>
+      </c>
+      <c r="X59" t="s">
+        <v>509</v>
+      </c>
       <c r="Y59" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60">
@@ -5873,7 +6895,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5882,35 +6904,31 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="J60" t="s">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="K60" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="L60" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
       <c r="S60" t="n">
         <v>5</v>
       </c>
@@ -5921,10 +6939,14 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>508</v>
+      </c>
+      <c r="X60" t="s">
+        <v>509</v>
+      </c>
       <c r="Y60" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61">
@@ -5940,7 +6962,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5949,49 +6971,39 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="J61" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="K61" t="s">
-        <v>488</v>
+        <v>296</v>
       </c>
       <c r="L61" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
-      <c r="N61" t="s">
-        <v>485</v>
-      </c>
-      <c r="O61" t="s">
-        <v>62</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>508</v>
+      </c>
+      <c r="X61" t="s">
+        <v>509</v>
+      </c>
       <c r="Y61" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62">
@@ -6007,7 +7019,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6016,53 +7028,39 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
       <c r="J62" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
       <c r="K62" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
       <c r="L62" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
-      <c r="N62" t="s">
-        <v>496</v>
-      </c>
-      <c r="O62" t="s">
-        <v>71</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="X62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="Y62" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63">
@@ -6078,7 +7076,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6087,45 +7085,43 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="J63" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="K63" t="s">
-        <v>503</v>
+        <v>313</v>
       </c>
       <c r="L63" t="s">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
-      </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
         <v>4</v>
       </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
+      <c r="N63" t="s">
+        <v>547</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>508</v>
+      </c>
+      <c r="X63" t="s">
+        <v>509</v>
+      </c>
       <c r="Y63" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64">
@@ -6141,7 +7137,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6150,53 +7146,43 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="J64" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="K64" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
       <c r="L64" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="O64" t="s">
-        <v>71</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="n">
-        <v>5</v>
-      </c>
-      <c r="R64" t="n">
         <v>3</v>
       </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>511</v>
-      </c>
-      <c r="X64" t="s">
-        <v>512</v>
-      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65">
@@ -6212,7 +7198,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6221,49 +7207,39 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="J65" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="K65" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="L65" t="s">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="O65" t="s">
-        <v>71</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
       <c r="R65" t="s"/>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>5</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s">
-        <v>520</v>
-      </c>
-      <c r="X65" t="s">
-        <v>521</v>
-      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>522</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66">
@@ -6279,7 +7255,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>523</v>
+        <v>563</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6288,34 +7264,34 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>524</v>
+        <v>564</v>
       </c>
       <c r="J66" t="s">
-        <v>525</v>
+        <v>565</v>
       </c>
       <c r="K66" t="s">
-        <v>526</v>
+        <v>566</v>
       </c>
       <c r="L66" t="s">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P66" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q66" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
       <c r="R66" t="s"/>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
         <v>5</v>
@@ -6323,14 +7299,10 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s">
-        <v>529</v>
-      </c>
-      <c r="X66" t="s">
-        <v>530</v>
-      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67">
@@ -6346,7 +7318,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6355,38 +7327,34 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="J67" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="K67" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="L67" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="O67" t="s">
-        <v>62</v>
-      </c>
-      <c r="P67" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
       <c r="Q67" t="n">
         <v>5</v>
       </c>
       <c r="R67" t="n">
         <v>5</v>
       </c>
-      <c r="S67" t="n">
-        <v>5</v>
-      </c>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
         <v>5</v>
@@ -6394,14 +7362,10 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s">
-        <v>538</v>
-      </c>
-      <c r="X67" t="s">
-        <v>539</v>
-      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68">
@@ -6417,7 +7381,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6426,41 +7390,37 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="J68" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="K68" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="L68" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="O68" t="s">
-        <v>200</v>
-      </c>
-      <c r="P68" t="n">
+        <v>63</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
         <v>2</v>
       </c>
-      <c r="Q68" t="n">
-        <v>1</v>
-      </c>
       <c r="R68" t="n">
-        <v>5</v>
-      </c>
-      <c r="S68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -6468,7 +7428,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69">
@@ -6484,7 +7444,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6493,49 +7453,39 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="J69" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="K69" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="L69" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="O69" t="s">
-        <v>105</v>
-      </c>
-      <c r="P69" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>4</v>
-      </c>
-      <c r="R69" t="n">
-        <v>5</v>
-      </c>
-      <c r="S69" t="n">
-        <v>4</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
       <c r="T69" t="s"/>
-      <c r="U69" t="n">
-        <v>5</v>
-      </c>
+      <c r="U69" t="s"/>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
     </row>
     <row r="70">
@@ -6551,7 +7501,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6560,22 +7510,26 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="J70" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="K70" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="L70" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
-      </c>
-      <c r="N70" t="s"/>
-      <c r="O70" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>594</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
       <c r="R70" t="s"/>
@@ -6588,7 +7542,3062 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>557</v>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>595</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>596</v>
+      </c>
+      <c r="J71" t="s">
+        <v>597</v>
+      </c>
+      <c r="K71" t="s">
+        <v>598</v>
+      </c>
+      <c r="L71" t="s">
+        <v>599</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>600</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>601</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>602</v>
+      </c>
+      <c r="J72" t="s">
+        <v>597</v>
+      </c>
+      <c r="K72" t="s">
+        <v>603</v>
+      </c>
+      <c r="L72" t="s">
+        <v>604</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>605</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>606</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>607</v>
+      </c>
+      <c r="J73" t="s">
+        <v>608</v>
+      </c>
+      <c r="K73" t="s">
+        <v>609</v>
+      </c>
+      <c r="L73" t="s">
+        <v>610</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>611</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>612</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>613</v>
+      </c>
+      <c r="J74" t="s">
+        <v>608</v>
+      </c>
+      <c r="K74" t="s">
+        <v>614</v>
+      </c>
+      <c r="L74" t="s">
+        <v>615</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>600</v>
+      </c>
+      <c r="O74" t="s">
+        <v>164</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>616</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>617</v>
+      </c>
+      <c r="J75" t="s">
+        <v>618</v>
+      </c>
+      <c r="K75" t="s">
+        <v>296</v>
+      </c>
+      <c r="L75" t="s">
+        <v>619</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>611</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>620</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>621</v>
+      </c>
+      <c r="J76" t="s">
+        <v>622</v>
+      </c>
+      <c r="K76" t="s">
+        <v>623</v>
+      </c>
+      <c r="L76" t="s">
+        <v>624</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>611</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>625</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>626</v>
+      </c>
+      <c r="J77" t="s">
+        <v>627</v>
+      </c>
+      <c r="K77" t="s">
+        <v>628</v>
+      </c>
+      <c r="L77" t="s">
+        <v>629</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>611</v>
+      </c>
+      <c r="O77" t="s">
+        <v>164</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>630</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>631</v>
+      </c>
+      <c r="J78" t="s">
+        <v>632</v>
+      </c>
+      <c r="K78" t="s">
+        <v>633</v>
+      </c>
+      <c r="L78" t="s">
+        <v>634</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>635</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>636</v>
+      </c>
+      <c r="J79" t="s">
+        <v>637</v>
+      </c>
+      <c r="K79" t="s">
+        <v>638</v>
+      </c>
+      <c r="L79" t="s">
+        <v>639</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>640</v>
+      </c>
+      <c r="O79" t="s">
+        <v>72</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>641</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>642</v>
+      </c>
+      <c r="J80" t="s">
+        <v>643</v>
+      </c>
+      <c r="K80" t="s">
+        <v>644</v>
+      </c>
+      <c r="L80" t="s">
+        <v>645</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>646</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>648</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>649</v>
+      </c>
+      <c r="J81" t="s">
+        <v>643</v>
+      </c>
+      <c r="K81" t="s">
+        <v>650</v>
+      </c>
+      <c r="L81" t="s">
+        <v>651</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>652</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>653</v>
+      </c>
+      <c r="J82" t="s">
+        <v>654</v>
+      </c>
+      <c r="K82" t="s">
+        <v>655</v>
+      </c>
+      <c r="L82" t="s">
+        <v>656</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>646</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>658</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>659</v>
+      </c>
+      <c r="J83" t="s">
+        <v>660</v>
+      </c>
+      <c r="K83" t="s">
+        <v>661</v>
+      </c>
+      <c r="L83" t="s">
+        <v>662</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>663</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>665</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>666</v>
+      </c>
+      <c r="J84" t="s">
+        <v>667</v>
+      </c>
+      <c r="K84" t="s">
+        <v>668</v>
+      </c>
+      <c r="L84" t="s">
+        <v>669</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>663</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>670</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>671</v>
+      </c>
+      <c r="J85" t="s">
+        <v>672</v>
+      </c>
+      <c r="K85" t="s">
+        <v>673</v>
+      </c>
+      <c r="L85" t="s">
+        <v>674</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>675</v>
+      </c>
+      <c r="O85" t="s">
+        <v>164</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>676</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>677</v>
+      </c>
+      <c r="J86" t="s">
+        <v>678</v>
+      </c>
+      <c r="K86" t="s">
+        <v>679</v>
+      </c>
+      <c r="L86" t="s">
+        <v>680</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>681</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>683</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>684</v>
+      </c>
+      <c r="J87" t="s">
+        <v>685</v>
+      </c>
+      <c r="K87" t="s">
+        <v>686</v>
+      </c>
+      <c r="L87" t="s">
+        <v>687</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>688</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>689</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>690</v>
+      </c>
+      <c r="J88" t="s">
+        <v>691</v>
+      </c>
+      <c r="K88" t="s">
+        <v>692</v>
+      </c>
+      <c r="L88" t="s">
+        <v>693</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>688</v>
+      </c>
+      <c r="O88" t="s">
+        <v>164</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>695</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>696</v>
+      </c>
+      <c r="J89" t="s">
+        <v>697</v>
+      </c>
+      <c r="K89" t="s">
+        <v>698</v>
+      </c>
+      <c r="L89" t="s">
+        <v>699</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>700</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>701</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>702</v>
+      </c>
+      <c r="J90" t="s">
+        <v>703</v>
+      </c>
+      <c r="K90" t="s">
+        <v>704</v>
+      </c>
+      <c r="L90" t="s">
+        <v>705</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>706</v>
+      </c>
+      <c r="O90" t="s">
+        <v>164</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>708</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>709</v>
+      </c>
+      <c r="J91" t="s">
+        <v>710</v>
+      </c>
+      <c r="K91" t="s">
+        <v>711</v>
+      </c>
+      <c r="L91" t="s">
+        <v>712</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>713</v>
+      </c>
+      <c r="X91" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>716</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>717</v>
+      </c>
+      <c r="J92" t="s">
+        <v>718</v>
+      </c>
+      <c r="K92" t="s">
+        <v>719</v>
+      </c>
+      <c r="L92" t="s">
+        <v>720</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>721</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>722</v>
+      </c>
+      <c r="J93" t="s">
+        <v>723</v>
+      </c>
+      <c r="K93" t="s">
+        <v>724</v>
+      </c>
+      <c r="L93" t="s">
+        <v>725</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>726</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>727</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>728</v>
+      </c>
+      <c r="J94" t="s">
+        <v>729</v>
+      </c>
+      <c r="K94" t="s">
+        <v>730</v>
+      </c>
+      <c r="L94" t="s">
+        <v>731</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>732</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>733</v>
+      </c>
+      <c r="J95" t="s">
+        <v>734</v>
+      </c>
+      <c r="K95" t="s">
+        <v>735</v>
+      </c>
+      <c r="L95" t="s">
+        <v>736</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>737</v>
+      </c>
+      <c r="O95" t="s">
+        <v>82</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>738</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>739</v>
+      </c>
+      <c r="J96" t="s">
+        <v>740</v>
+      </c>
+      <c r="K96" t="s">
+        <v>741</v>
+      </c>
+      <c r="L96" t="s">
+        <v>742</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>743</v>
+      </c>
+      <c r="O96" t="s">
+        <v>164</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>745</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>746</v>
+      </c>
+      <c r="J97" t="s">
+        <v>747</v>
+      </c>
+      <c r="K97" t="s">
+        <v>748</v>
+      </c>
+      <c r="L97" t="s">
+        <v>749</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>750</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>751</v>
+      </c>
+      <c r="J98" t="s">
+        <v>752</v>
+      </c>
+      <c r="K98" t="s">
+        <v>753</v>
+      </c>
+      <c r="L98" t="s">
+        <v>754</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>755</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>756</v>
+      </c>
+      <c r="X98" t="s">
+        <v>757</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>759</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>760</v>
+      </c>
+      <c r="J99" t="s">
+        <v>761</v>
+      </c>
+      <c r="K99" t="s">
+        <v>762</v>
+      </c>
+      <c r="L99" t="s">
+        <v>763</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>755</v>
+      </c>
+      <c r="O99" t="s">
+        <v>63</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>764</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>765</v>
+      </c>
+      <c r="J100" t="s">
+        <v>766</v>
+      </c>
+      <c r="K100" t="s">
+        <v>767</v>
+      </c>
+      <c r="L100" t="s">
+        <v>768</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>755</v>
+      </c>
+      <c r="O100" t="s">
+        <v>82</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>769</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>770</v>
+      </c>
+      <c r="J101" t="s">
+        <v>771</v>
+      </c>
+      <c r="K101" t="s">
+        <v>772</v>
+      </c>
+      <c r="L101" t="s">
+        <v>773</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>774</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>775</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>776</v>
+      </c>
+      <c r="J102" t="s">
+        <v>771</v>
+      </c>
+      <c r="K102" t="s">
+        <v>777</v>
+      </c>
+      <c r="L102" t="s">
+        <v>778</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>774</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>780</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>781</v>
+      </c>
+      <c r="J103" t="s">
+        <v>782</v>
+      </c>
+      <c r="K103" t="s">
+        <v>783</v>
+      </c>
+      <c r="L103" t="s">
+        <v>784</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>743</v>
+      </c>
+      <c r="O103" t="s">
+        <v>164</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>785</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>786</v>
+      </c>
+      <c r="J104" t="s">
+        <v>787</v>
+      </c>
+      <c r="K104" t="s">
+        <v>788</v>
+      </c>
+      <c r="L104" t="s">
+        <v>789</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>790</v>
+      </c>
+      <c r="O104" t="s">
+        <v>63</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>791</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>792</v>
+      </c>
+      <c r="J105" t="s">
+        <v>793</v>
+      </c>
+      <c r="K105" t="s">
+        <v>794</v>
+      </c>
+      <c r="L105" t="s">
+        <v>795</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>796</v>
+      </c>
+      <c r="O105" t="s">
+        <v>63</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>797</v>
+      </c>
+      <c r="X105" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>800</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>801</v>
+      </c>
+      <c r="J106" t="s">
+        <v>802</v>
+      </c>
+      <c r="K106" t="s">
+        <v>803</v>
+      </c>
+      <c r="L106" t="s">
+        <v>804</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>805</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>806</v>
+      </c>
+      <c r="J107" t="s">
+        <v>807</v>
+      </c>
+      <c r="K107" t="s">
+        <v>808</v>
+      </c>
+      <c r="L107" t="s">
+        <v>809</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>810</v>
+      </c>
+      <c r="O107" t="s">
+        <v>63</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>811</v>
+      </c>
+      <c r="X107" t="s">
+        <v>812</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>814</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>815</v>
+      </c>
+      <c r="J108" t="s">
+        <v>816</v>
+      </c>
+      <c r="K108" t="s">
+        <v>817</v>
+      </c>
+      <c r="L108" t="s">
+        <v>818</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>810</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>819</v>
+      </c>
+      <c r="X108" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>822</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>823</v>
+      </c>
+      <c r="J109" t="s">
+        <v>824</v>
+      </c>
+      <c r="K109" t="s">
+        <v>825</v>
+      </c>
+      <c r="L109" t="s">
+        <v>826</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>810</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>819</v>
+      </c>
+      <c r="X109" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>828</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>829</v>
+      </c>
+      <c r="J110" t="s">
+        <v>830</v>
+      </c>
+      <c r="K110" t="s">
+        <v>831</v>
+      </c>
+      <c r="L110" t="s">
+        <v>832</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>833</v>
+      </c>
+      <c r="O110" t="s">
+        <v>63</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>834</v>
+      </c>
+      <c r="X110" t="s">
+        <v>835</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>837</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>838</v>
+      </c>
+      <c r="J111" t="s">
+        <v>839</v>
+      </c>
+      <c r="K111" t="s">
+        <v>840</v>
+      </c>
+      <c r="L111" t="s">
+        <v>841</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>842</v>
+      </c>
+      <c r="O111" t="s">
+        <v>82</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>843</v>
+      </c>
+      <c r="X111" t="s">
+        <v>844</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>846</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>847</v>
+      </c>
+      <c r="J112" t="s">
+        <v>848</v>
+      </c>
+      <c r="K112" t="s">
+        <v>849</v>
+      </c>
+      <c r="L112" t="s">
+        <v>850</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>851</v>
+      </c>
+      <c r="O112" t="s">
+        <v>53</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>852</v>
+      </c>
+      <c r="X112" t="s">
+        <v>853</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>855</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>856</v>
+      </c>
+      <c r="J113" t="s">
+        <v>857</v>
+      </c>
+      <c r="K113" t="s">
+        <v>858</v>
+      </c>
+      <c r="L113" t="s">
+        <v>859</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>860</v>
+      </c>
+      <c r="O113" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>862</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>863</v>
+      </c>
+      <c r="J114" t="s">
+        <v>864</v>
+      </c>
+      <c r="K114" t="s">
+        <v>865</v>
+      </c>
+      <c r="L114" t="s">
+        <v>866</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="s">
+        <v>867</v>
+      </c>
+      <c r="O114" t="s">
+        <v>63</v>
+      </c>
+      <c r="P114" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>869</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>870</v>
+      </c>
+      <c r="J115" t="s">
+        <v>871</v>
+      </c>
+      <c r="K115" t="s">
+        <v>872</v>
+      </c>
+      <c r="L115" t="s">
+        <v>873</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="s">
+        <v>874</v>
+      </c>
+      <c r="O115" t="s">
+        <v>72</v>
+      </c>
+      <c r="P115" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>1</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>875</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>876</v>
+      </c>
+      <c r="J116" t="s">
+        <v>877</v>
+      </c>
+      <c r="K116" t="s">
+        <v>878</v>
+      </c>
+      <c r="L116" t="s">
+        <v>879</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4</v>
+      </c>
+      <c r="N116" t="s">
+        <v>880</v>
+      </c>
+      <c r="O116" t="s">
+        <v>164</v>
+      </c>
+      <c r="P116" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>4</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>40726</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>881</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>882</v>
+      </c>
+      <c r="J117" t="s">
+        <v>883</v>
+      </c>
+      <c r="K117" t="s">
+        <v>884</v>
+      </c>
+      <c r="L117" t="s">
+        <v>885</v>
+      </c>
+      <c r="M117" t="n">
+        <v>4</v>
+      </c>
+      <c r="N117" t="s"/>
+      <c r="O117" t="s"/>
+      <c r="P117" t="s"/>
+      <c r="Q117" t="s"/>
+      <c r="R117" t="s"/>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s"/>
+      <c r="U117" t="s"/>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>885</v>
       </c>
     </row>
   </sheetData>
